--- a/VersionRecords/Version 5.0.2/版本Bug和特性计划及评审表v5.0.2_EQ组.xlsx
+++ b/VersionRecords/Version 5.0.2/版本Bug和特性计划及评审表v5.0.2_EQ组.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataStar\DataCode\GitDoc\Mogo_Doc\VersionRecords\Version 5.0.2\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="5730" yWindow="3870" windowWidth="25125" windowHeight="11760"/>
   </bookViews>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="101">
   <si>
     <t>No</t>
   </si>
@@ -402,12 +397,40 @@
     <t>技术经理</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>周蓉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴永余</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>周蓉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴永余</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>周蓉、吴永余</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -790,6 +813,12 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -801,12 +830,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1160,17 +1183,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomRight" activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.5" style="14" customWidth="1"/>
     <col min="2" max="2" width="42.125" style="15" customWidth="1"/>
@@ -1195,7 +1218,7 @@
     <col min="21" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" s="1" customFormat="1" ht="27.75" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1254,7 +1277,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="9" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:20" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A2" s="16">
         <v>1</v>
       </c>
@@ -1286,17 +1309,25 @@
       <c r="K2" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="L2" s="10"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="12"/>
+      <c r="L2" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="N2" s="11">
+        <v>42633</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>100</v>
+      </c>
       <c r="P2" s="37"/>
       <c r="Q2" s="37"/>
       <c r="R2" s="37"/>
       <c r="S2" s="13"/>
       <c r="T2" s="8"/>
     </row>
-    <row r="3" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:20" ht="16.5">
       <c r="A3" s="16">
         <v>2</v>
       </c>
@@ -1328,16 +1359,24 @@
       <c r="K3" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="4"/>
+      <c r="L3" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="N3" s="11">
+        <v>42634</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>100</v>
+      </c>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
       <c r="S3" s="4"/>
     </row>
-    <row r="4" spans="1:20" ht="33" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:20" ht="33">
       <c r="A4" s="16">
         <v>3</v>
       </c>
@@ -1369,16 +1408,24 @@
       <c r="K4" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="4"/>
+      <c r="L4" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="N4" s="11">
+        <v>42633</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>100</v>
+      </c>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
       <c r="S4" s="4"/>
     </row>
-    <row r="5" spans="1:20" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:20" ht="49.5">
       <c r="A5" s="16">
         <v>4</v>
       </c>
@@ -1410,16 +1457,24 @@
       <c r="K5" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="4"/>
+      <c r="L5" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="N5" s="11">
+        <v>42633</v>
+      </c>
+      <c r="O5" s="12" t="s">
+        <v>100</v>
+      </c>
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
       <c r="S5" s="4"/>
     </row>
-    <row r="6" spans="1:20" ht="33" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:20" ht="33">
       <c r="A6" s="16">
         <v>5</v>
       </c>
@@ -1451,16 +1506,24 @@
       <c r="K6" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="4"/>
+      <c r="L6" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="N6" s="11">
+        <v>42633</v>
+      </c>
+      <c r="O6" s="12" t="s">
+        <v>100</v>
+      </c>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
       <c r="S6" s="4"/>
     </row>
-    <row r="7" spans="1:20" ht="33" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:20" ht="33">
       <c r="A7" s="16">
         <v>6</v>
       </c>
@@ -1492,16 +1555,24 @@
       <c r="K7" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="4"/>
+      <c r="L7" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="N7" s="11">
+        <v>42633</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>100</v>
+      </c>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
       <c r="S7" s="4"/>
     </row>
-    <row r="8" spans="1:20" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:20" ht="49.5">
       <c r="A8" s="16">
         <v>7</v>
       </c>
@@ -1533,16 +1604,24 @@
       <c r="K8" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="4"/>
+      <c r="L8" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="M8" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="N8" s="11">
+        <v>42633</v>
+      </c>
+      <c r="O8" s="12" t="s">
+        <v>100</v>
+      </c>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
       <c r="S8" s="4"/>
     </row>
-    <row r="9" spans="1:20" ht="33" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:20" ht="33">
       <c r="A9" s="16">
         <v>8</v>
       </c>
@@ -1574,16 +1653,24 @@
       <c r="K9" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="4"/>
+      <c r="L9" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="M9" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="N9" s="11">
+        <v>42633</v>
+      </c>
+      <c r="O9" s="12" t="s">
+        <v>100</v>
+      </c>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
       <c r="S9" s="4"/>
     </row>
-    <row r="10" spans="1:20" ht="33" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:20" ht="33">
       <c r="A10" s="16">
         <v>9</v>
       </c>
@@ -1615,16 +1702,24 @@
       <c r="K10" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="4"/>
+      <c r="L10" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="N10" s="11">
+        <v>42634</v>
+      </c>
+      <c r="O10" s="12" t="s">
+        <v>100</v>
+      </c>
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
       <c r="S10" s="4"/>
     </row>
-    <row r="11" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:20" ht="16.5">
       <c r="A11" s="7"/>
       <c r="B11" s="4"/>
       <c r="C11" s="7"/>
@@ -1645,7 +1740,7 @@
       <c r="R11" s="7"/>
       <c r="S11" s="4"/>
     </row>
-    <row r="12" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:20" ht="16.5">
       <c r="A12" s="7"/>
       <c r="B12" s="4"/>
       <c r="C12" s="7"/>
@@ -1666,7 +1761,7 @@
       <c r="R12" s="7"/>
       <c r="S12" s="4"/>
     </row>
-    <row r="13" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:20" ht="16.5">
       <c r="A13" s="7"/>
       <c r="B13" s="4"/>
       <c r="C13" s="7"/>
@@ -1687,7 +1782,7 @@
       <c r="R13" s="7"/>
       <c r="S13" s="4"/>
     </row>
-    <row r="14" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:20" ht="16.5">
       <c r="A14" s="7"/>
       <c r="B14" s="4"/>
       <c r="C14" s="7"/>
@@ -1708,7 +1803,7 @@
       <c r="R14" s="7"/>
       <c r="S14" s="4"/>
     </row>
-    <row r="15" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:20" ht="16.5">
       <c r="A15" s="7"/>
       <c r="B15" s="4"/>
       <c r="C15" s="7"/>
@@ -1729,7 +1824,7 @@
       <c r="R15" s="7"/>
       <c r="S15" s="4"/>
     </row>
-    <row r="16" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:20" ht="16.5">
       <c r="A16" s="7"/>
       <c r="B16" s="4"/>
       <c r="C16" s="7"/>
@@ -1750,7 +1845,7 @@
       <c r="R16" s="7"/>
       <c r="S16" s="4"/>
     </row>
-    <row r="17" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:19" ht="16.5">
       <c r="A17" s="7"/>
       <c r="B17" s="4"/>
       <c r="C17" s="7"/>
@@ -1771,7 +1866,7 @@
       <c r="R17" s="7"/>
       <c r="S17" s="4"/>
     </row>
-    <row r="18" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:19" ht="16.5">
       <c r="A18" s="7"/>
       <c r="B18" s="4"/>
       <c r="C18" s="7"/>
@@ -1792,7 +1887,7 @@
       <c r="R18" s="7"/>
       <c r="S18" s="4"/>
     </row>
-    <row r="19" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:19" ht="16.5">
       <c r="A19" s="7"/>
       <c r="B19" s="4"/>
       <c r="C19" s="7"/>
@@ -1813,7 +1908,7 @@
       <c r="R19" s="7"/>
       <c r="S19" s="4"/>
     </row>
-    <row r="20" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:19" ht="16.5">
       <c r="A20" s="7"/>
       <c r="B20" s="4"/>
       <c r="C20" s="7"/>
@@ -1834,7 +1929,7 @@
       <c r="R20" s="7"/>
       <c r="S20" s="4"/>
     </row>
-    <row r="21" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:19" ht="16.5">
       <c r="A21" s="7"/>
       <c r="B21" s="4"/>
       <c r="C21" s="7"/>
@@ -1855,7 +1950,7 @@
       <c r="R21" s="7"/>
       <c r="S21" s="4"/>
     </row>
-    <row r="22" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:19" ht="16.5">
       <c r="A22" s="7"/>
       <c r="B22" s="4"/>
       <c r="C22" s="7"/>
@@ -1876,7 +1971,7 @@
       <c r="R22" s="7"/>
       <c r="S22" s="4"/>
     </row>
-    <row r="23" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:19" ht="16.5">
       <c r="A23" s="7"/>
       <c r="B23" s="4"/>
       <c r="C23" s="7"/>
@@ -1897,7 +1992,7 @@
       <c r="R23" s="7"/>
       <c r="S23" s="4"/>
     </row>
-    <row r="24" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:19" ht="16.5">
       <c r="A24" s="7"/>
       <c r="B24" s="4"/>
       <c r="C24" s="7"/>
@@ -1918,7 +2013,7 @@
       <c r="R24" s="7"/>
       <c r="S24" s="4"/>
     </row>
-    <row r="25" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:19" ht="16.5">
       <c r="A25" s="7"/>
       <c r="B25" s="4"/>
       <c r="C25" s="7"/>
@@ -1939,7 +2034,7 @@
       <c r="R25" s="7"/>
       <c r="S25" s="4"/>
     </row>
-    <row r="26" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:19" ht="16.5">
       <c r="A26" s="7"/>
       <c r="B26" s="4"/>
       <c r="C26" s="7"/>
@@ -1960,7 +2055,7 @@
       <c r="R26" s="7"/>
       <c r="S26" s="4"/>
     </row>
-    <row r="27" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:19" ht="16.5">
       <c r="A27" s="7"/>
       <c r="B27" s="4"/>
       <c r="C27" s="7"/>
@@ -1981,7 +2076,7 @@
       <c r="R27" s="7"/>
       <c r="S27" s="4"/>
     </row>
-    <row r="28" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:19" ht="16.5">
       <c r="A28" s="7"/>
       <c r="B28" s="4"/>
       <c r="C28" s="7"/>
@@ -2002,7 +2097,7 @@
       <c r="R28" s="7"/>
       <c r="S28" s="4"/>
     </row>
-    <row r="29" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:19" ht="16.5">
       <c r="A29" s="7"/>
       <c r="B29" s="4"/>
       <c r="C29" s="7"/>
@@ -2023,7 +2118,7 @@
       <c r="R29" s="7"/>
       <c r="S29" s="4"/>
     </row>
-    <row r="30" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:19" ht="16.5">
       <c r="A30" s="7"/>
       <c r="B30" s="4"/>
       <c r="C30" s="7"/>
@@ -2044,7 +2139,7 @@
       <c r="R30" s="7"/>
       <c r="S30" s="4"/>
     </row>
-    <row r="31" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:19" ht="16.5">
       <c r="A31" s="7"/>
       <c r="B31" s="4"/>
       <c r="C31" s="7"/>
@@ -2065,7 +2160,7 @@
       <c r="R31" s="7"/>
       <c r="S31" s="4"/>
     </row>
-    <row r="32" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:19" ht="16.5">
       <c r="A32" s="7"/>
       <c r="B32" s="4"/>
       <c r="C32" s="7"/>
@@ -2086,7 +2181,7 @@
       <c r="R32" s="7"/>
       <c r="S32" s="4"/>
     </row>
-    <row r="33" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:19" ht="16.5">
       <c r="A33" s="7"/>
       <c r="B33" s="4"/>
       <c r="C33" s="7"/>
@@ -2107,7 +2202,7 @@
       <c r="R33" s="7"/>
       <c r="S33" s="4"/>
     </row>
-    <row r="34" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:19" ht="16.5">
       <c r="A34" s="7"/>
       <c r="B34" s="4"/>
       <c r="C34" s="7"/>
@@ -2128,7 +2223,7 @@
       <c r="R34" s="7"/>
       <c r="S34" s="4"/>
     </row>
-    <row r="35" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:19" ht="16.5">
       <c r="A35" s="7"/>
       <c r="B35" s="4"/>
       <c r="C35" s="7"/>
@@ -2149,7 +2244,7 @@
       <c r="R35" s="7"/>
       <c r="S35" s="4"/>
     </row>
-    <row r="36" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:19" ht="16.5">
       <c r="A36" s="7"/>
       <c r="B36" s="4"/>
       <c r="C36" s="7"/>
@@ -2170,7 +2265,7 @@
       <c r="R36" s="7"/>
       <c r="S36" s="4"/>
     </row>
-    <row r="37" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:19" ht="16.5">
       <c r="A37" s="7"/>
       <c r="B37" s="4"/>
       <c r="C37" s="7"/>
@@ -2191,7 +2286,7 @@
       <c r="R37" s="7"/>
       <c r="S37" s="4"/>
     </row>
-    <row r="38" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:19" ht="16.5">
       <c r="A38" s="7"/>
       <c r="B38" s="4"/>
       <c r="C38" s="7"/>
@@ -2212,7 +2307,7 @@
       <c r="R38" s="7"/>
       <c r="S38" s="4"/>
     </row>
-    <row r="39" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:19" ht="16.5">
       <c r="A39" s="7"/>
       <c r="B39" s="4"/>
       <c r="C39" s="7"/>
@@ -2233,7 +2328,7 @@
       <c r="R39" s="7"/>
       <c r="S39" s="4"/>
     </row>
-    <row r="40" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:19" ht="16.5">
       <c r="A40" s="7"/>
       <c r="B40" s="4"/>
       <c r="C40" s="7"/>
@@ -2254,7 +2349,7 @@
       <c r="R40" s="7"/>
       <c r="S40" s="4"/>
     </row>
-    <row r="41" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:19" ht="16.5">
       <c r="A41" s="7"/>
       <c r="B41" s="4"/>
       <c r="C41" s="7"/>
@@ -2275,7 +2370,7 @@
       <c r="R41" s="7"/>
       <c r="S41" s="4"/>
     </row>
-    <row r="42" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:19" ht="16.5">
       <c r="A42" s="7"/>
       <c r="B42" s="4"/>
       <c r="C42" s="7"/>
@@ -2296,7 +2391,7 @@
       <c r="R42" s="7"/>
       <c r="S42" s="4"/>
     </row>
-    <row r="43" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:19" ht="16.5">
       <c r="A43" s="7"/>
       <c r="B43" s="4"/>
       <c r="C43" s="7"/>
@@ -2317,7 +2412,7 @@
       <c r="R43" s="7"/>
       <c r="S43" s="4"/>
     </row>
-    <row r="44" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:19" ht="16.5">
       <c r="A44" s="7"/>
       <c r="B44" s="4"/>
       <c r="C44" s="7"/>
@@ -2338,7 +2433,7 @@
       <c r="R44" s="7"/>
       <c r="S44" s="4"/>
     </row>
-    <row r="45" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:19" ht="16.5">
       <c r="A45" s="7"/>
       <c r="B45" s="4"/>
       <c r="C45" s="7"/>
@@ -2359,7 +2454,7 @@
       <c r="R45" s="7"/>
       <c r="S45" s="4"/>
     </row>
-    <row r="46" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:19" ht="16.5">
       <c r="A46" s="7"/>
       <c r="B46" s="4"/>
       <c r="C46" s="7"/>
@@ -2380,7 +2475,7 @@
       <c r="R46" s="7"/>
       <c r="S46" s="4"/>
     </row>
-    <row r="47" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:19" ht="16.5">
       <c r="A47" s="7"/>
       <c r="B47" s="4"/>
       <c r="C47" s="7"/>
@@ -2401,7 +2496,7 @@
       <c r="R47" s="7"/>
       <c r="S47" s="4"/>
     </row>
-    <row r="48" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:19" ht="16.5">
       <c r="A48" s="7"/>
       <c r="B48" s="4"/>
       <c r="C48" s="7"/>
@@ -2422,7 +2517,7 @@
       <c r="R48" s="7"/>
       <c r="S48" s="4"/>
     </row>
-    <row r="49" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:19" ht="16.5">
       <c r="A49" s="7"/>
       <c r="B49" s="4"/>
       <c r="C49" s="7"/>
@@ -2443,7 +2538,7 @@
       <c r="R49" s="7"/>
       <c r="S49" s="4"/>
     </row>
-    <row r="50" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:19" ht="16.5">
       <c r="A50" s="7"/>
       <c r="B50" s="4"/>
       <c r="C50" s="7"/>
@@ -2464,7 +2559,7 @@
       <c r="R50" s="7"/>
       <c r="S50" s="4"/>
     </row>
-    <row r="51" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:19" ht="16.5">
       <c r="A51" s="7"/>
       <c r="B51" s="4"/>
       <c r="C51" s="7"/>
@@ -2485,7 +2580,7 @@
       <c r="R51" s="7"/>
       <c r="S51" s="4"/>
     </row>
-    <row r="52" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:19" ht="16.5">
       <c r="A52" s="7"/>
       <c r="B52" s="4"/>
       <c r="C52" s="7"/>
@@ -2506,7 +2601,7 @@
       <c r="R52" s="7"/>
       <c r="S52" s="4"/>
     </row>
-    <row r="53" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:19" ht="16.5">
       <c r="A53" s="7"/>
       <c r="B53" s="4"/>
       <c r="C53" s="7"/>
@@ -2527,7 +2622,7 @@
       <c r="R53" s="7"/>
       <c r="S53" s="4"/>
     </row>
-    <row r="54" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:19" ht="16.5">
       <c r="A54" s="7"/>
       <c r="B54" s="4"/>
       <c r="C54" s="7"/>
@@ -2548,7 +2643,7 @@
       <c r="R54" s="7"/>
       <c r="S54" s="4"/>
     </row>
-    <row r="55" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:19" ht="16.5">
       <c r="A55" s="7"/>
       <c r="B55" s="4"/>
       <c r="C55" s="7"/>
@@ -2569,7 +2664,7 @@
       <c r="R55" s="7"/>
       <c r="S55" s="4"/>
     </row>
-    <row r="56" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:19" ht="16.5">
       <c r="A56" s="7"/>
       <c r="B56" s="4"/>
       <c r="C56" s="7"/>
@@ -2590,7 +2685,7 @@
       <c r="R56" s="7"/>
       <c r="S56" s="4"/>
     </row>
-    <row r="57" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:19" ht="16.5">
       <c r="A57" s="7"/>
       <c r="B57" s="4"/>
       <c r="C57" s="7"/>
@@ -2611,7 +2706,7 @@
       <c r="R57" s="7"/>
       <c r="S57" s="4"/>
     </row>
-    <row r="58" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:19" ht="16.5">
       <c r="A58" s="7"/>
       <c r="B58" s="4"/>
       <c r="C58" s="7"/>
@@ -2632,7 +2727,7 @@
       <c r="R58" s="7"/>
       <c r="S58" s="4"/>
     </row>
-    <row r="59" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:19" ht="16.5">
       <c r="A59" s="7"/>
       <c r="B59" s="4"/>
       <c r="C59" s="7"/>
@@ -2653,7 +2748,7 @@
       <c r="R59" s="7"/>
       <c r="S59" s="4"/>
     </row>
-    <row r="60" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:19" ht="16.5">
       <c r="A60" s="7"/>
       <c r="B60" s="4"/>
       <c r="C60" s="7"/>
@@ -2674,7 +2769,7 @@
       <c r="R60" s="7"/>
       <c r="S60" s="4"/>
     </row>
-    <row r="61" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:19" ht="16.5">
       <c r="A61" s="7"/>
       <c r="B61" s="4"/>
       <c r="C61" s="7"/>
@@ -2695,7 +2790,7 @@
       <c r="R61" s="7"/>
       <c r="S61" s="4"/>
     </row>
-    <row r="62" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:19" ht="16.5">
       <c r="A62" s="7"/>
       <c r="B62" s="4"/>
       <c r="C62" s="7"/>
@@ -2716,7 +2811,7 @@
       <c r="R62" s="7"/>
       <c r="S62" s="4"/>
     </row>
-    <row r="63" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:19" ht="16.5">
       <c r="A63" s="7"/>
       <c r="B63" s="4"/>
       <c r="C63" s="7"/>
@@ -2737,7 +2832,7 @@
       <c r="R63" s="7"/>
       <c r="S63" s="4"/>
     </row>
-    <row r="64" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:19" ht="16.5">
       <c r="A64" s="7"/>
       <c r="B64" s="4"/>
       <c r="C64" s="7"/>
@@ -2758,7 +2853,7 @@
       <c r="R64" s="7"/>
       <c r="S64" s="4"/>
     </row>
-    <row r="65" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:19" ht="16.5">
       <c r="A65" s="7"/>
       <c r="B65" s="4"/>
       <c r="C65" s="7"/>
@@ -2779,7 +2874,7 @@
       <c r="R65" s="7"/>
       <c r="S65" s="4"/>
     </row>
-    <row r="66" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:19" ht="16.5">
       <c r="A66" s="7"/>
       <c r="B66" s="4"/>
       <c r="C66" s="7"/>
@@ -2800,7 +2895,7 @@
       <c r="R66" s="7"/>
       <c r="S66" s="4"/>
     </row>
-    <row r="67" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:19" ht="16.5">
       <c r="A67" s="7"/>
       <c r="B67" s="4"/>
       <c r="C67" s="7"/>
@@ -2821,7 +2916,7 @@
       <c r="R67" s="7"/>
       <c r="S67" s="4"/>
     </row>
-    <row r="68" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:19" ht="16.5">
       <c r="A68" s="7"/>
       <c r="B68" s="4"/>
       <c r="C68" s="7"/>
@@ -2842,7 +2937,7 @@
       <c r="R68" s="7"/>
       <c r="S68" s="4"/>
     </row>
-    <row r="69" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:19" ht="16.5">
       <c r="A69" s="7"/>
       <c r="B69" s="4"/>
       <c r="C69" s="7"/>
@@ -2863,7 +2958,7 @@
       <c r="R69" s="7"/>
       <c r="S69" s="4"/>
     </row>
-    <row r="70" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:19" ht="16.5">
       <c r="A70" s="7"/>
       <c r="B70" s="4"/>
       <c r="C70" s="7"/>
@@ -2884,7 +2979,7 @@
       <c r="R70" s="7"/>
       <c r="S70" s="4"/>
     </row>
-    <row r="71" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:19" ht="16.5">
       <c r="A71" s="7"/>
       <c r="B71" s="4"/>
       <c r="C71" s="7"/>
@@ -2905,7 +3000,7 @@
       <c r="R71" s="7"/>
       <c r="S71" s="4"/>
     </row>
-    <row r="72" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:19" ht="16.5">
       <c r="A72" s="7"/>
       <c r="B72" s="4"/>
       <c r="C72" s="7"/>
@@ -2926,7 +3021,7 @@
       <c r="R72" s="7"/>
       <c r="S72" s="4"/>
     </row>
-    <row r="73" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:19" ht="16.5">
       <c r="A73" s="7"/>
       <c r="B73" s="4"/>
       <c r="C73" s="7"/>
@@ -2947,7 +3042,7 @@
       <c r="R73" s="7"/>
       <c r="S73" s="4"/>
     </row>
-    <row r="74" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:19" ht="16.5">
       <c r="A74" s="7"/>
       <c r="B74" s="4"/>
       <c r="C74" s="7"/>
@@ -2968,7 +3063,7 @@
       <c r="R74" s="7"/>
       <c r="S74" s="4"/>
     </row>
-    <row r="75" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:19" ht="16.5">
       <c r="A75" s="7"/>
       <c r="B75" s="4"/>
       <c r="C75" s="7"/>
@@ -2989,7 +3084,7 @@
       <c r="R75" s="7"/>
       <c r="S75" s="4"/>
     </row>
-    <row r="76" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:19" ht="16.5">
       <c r="A76" s="7"/>
       <c r="B76" s="4"/>
       <c r="C76" s="7"/>
@@ -3010,7 +3105,7 @@
       <c r="R76" s="7"/>
       <c r="S76" s="4"/>
     </row>
-    <row r="77" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:19" ht="16.5">
       <c r="A77" s="7"/>
       <c r="B77" s="4"/>
       <c r="C77" s="7"/>
@@ -3031,7 +3126,7 @@
       <c r="R77" s="7"/>
       <c r="S77" s="4"/>
     </row>
-    <row r="78" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:19" ht="16.5">
       <c r="A78" s="7"/>
       <c r="B78" s="4"/>
       <c r="C78" s="7"/>
@@ -3052,7 +3147,7 @@
       <c r="R78" s="7"/>
       <c r="S78" s="4"/>
     </row>
-    <row r="79" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:19" ht="16.5">
       <c r="A79" s="7"/>
       <c r="B79" s="4"/>
       <c r="C79" s="7"/>
@@ -3073,7 +3168,7 @@
       <c r="R79" s="7"/>
       <c r="S79" s="4"/>
     </row>
-    <row r="80" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:19" ht="16.5">
       <c r="A80" s="7"/>
       <c r="B80" s="4"/>
       <c r="C80" s="7"/>
@@ -3094,7 +3189,7 @@
       <c r="R80" s="7"/>
       <c r="S80" s="4"/>
     </row>
-    <row r="81" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:19" ht="16.5">
       <c r="A81" s="7"/>
       <c r="B81" s="4"/>
       <c r="C81" s="7"/>
@@ -3115,7 +3210,7 @@
       <c r="R81" s="7"/>
       <c r="S81" s="4"/>
     </row>
-    <row r="82" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:19" ht="16.5">
       <c r="A82" s="7"/>
       <c r="B82" s="4"/>
       <c r="C82" s="7"/>
@@ -3136,7 +3231,7 @@
       <c r="R82" s="7"/>
       <c r="S82" s="4"/>
     </row>
-    <row r="83" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:19" ht="16.5">
       <c r="A83" s="7"/>
       <c r="B83" s="4"/>
       <c r="C83" s="7"/>
@@ -3157,7 +3252,7 @@
       <c r="R83" s="7"/>
       <c r="S83" s="4"/>
     </row>
-    <row r="84" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:19" ht="16.5">
       <c r="A84" s="7"/>
       <c r="B84" s="4"/>
       <c r="C84" s="7"/>
@@ -3178,7 +3273,7 @@
       <c r="R84" s="7"/>
       <c r="S84" s="4"/>
     </row>
-    <row r="85" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:19" ht="16.5">
       <c r="A85" s="7"/>
       <c r="B85" s="4"/>
       <c r="C85" s="7"/>
@@ -3199,7 +3294,7 @@
       <c r="R85" s="7"/>
       <c r="S85" s="4"/>
     </row>
-    <row r="86" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:19" ht="16.5">
       <c r="A86" s="7"/>
       <c r="B86" s="4"/>
       <c r="C86" s="7"/>
@@ -3220,7 +3315,7 @@
       <c r="R86" s="7"/>
       <c r="S86" s="4"/>
     </row>
-    <row r="87" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:19" ht="16.5">
       <c r="A87" s="7"/>
       <c r="B87" s="4"/>
       <c r="C87" s="7"/>
@@ -3241,7 +3336,7 @@
       <c r="R87" s="7"/>
       <c r="S87" s="4"/>
     </row>
-    <row r="88" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:19" ht="16.5">
       <c r="A88" s="7"/>
       <c r="B88" s="4"/>
       <c r="C88" s="7"/>
@@ -3262,7 +3357,7 @@
       <c r="R88" s="7"/>
       <c r="S88" s="4"/>
     </row>
-    <row r="89" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:19" ht="16.5">
       <c r="A89" s="7"/>
       <c r="B89" s="4"/>
       <c r="C89" s="7"/>
@@ -3283,7 +3378,7 @@
       <c r="R89" s="7"/>
       <c r="S89" s="4"/>
     </row>
-    <row r="90" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:19" ht="16.5">
       <c r="A90" s="7"/>
       <c r="B90" s="4"/>
       <c r="C90" s="7"/>
@@ -3304,7 +3399,7 @@
       <c r="R90" s="7"/>
       <c r="S90" s="4"/>
     </row>
-    <row r="91" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:19" ht="16.5">
       <c r="A91" s="7"/>
       <c r="B91" s="4"/>
       <c r="C91" s="7"/>
@@ -3325,7 +3420,7 @@
       <c r="R91" s="7"/>
       <c r="S91" s="4"/>
     </row>
-    <row r="92" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:19" ht="16.5">
       <c r="A92" s="7"/>
       <c r="B92" s="4"/>
       <c r="C92" s="7"/>
@@ -3346,7 +3441,7 @@
       <c r="R92" s="7"/>
       <c r="S92" s="4"/>
     </row>
-    <row r="93" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:19" ht="16.5">
       <c r="A93" s="7"/>
       <c r="B93" s="4"/>
       <c r="C93" s="7"/>
@@ -3367,7 +3462,7 @@
       <c r="R93" s="7"/>
       <c r="S93" s="4"/>
     </row>
-    <row r="94" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:19" ht="16.5">
       <c r="A94" s="7"/>
       <c r="B94" s="4"/>
       <c r="C94" s="7"/>
@@ -3388,7 +3483,7 @@
       <c r="R94" s="7"/>
       <c r="S94" s="4"/>
     </row>
-    <row r="95" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:19" ht="16.5">
       <c r="A95" s="7"/>
       <c r="B95" s="4"/>
       <c r="C95" s="7"/>
@@ -3409,7 +3504,7 @@
       <c r="R95" s="7"/>
       <c r="S95" s="4"/>
     </row>
-    <row r="96" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:19" ht="16.5">
       <c r="A96" s="7"/>
       <c r="B96" s="4"/>
       <c r="C96" s="7"/>
@@ -3430,7 +3525,7 @@
       <c r="R96" s="7"/>
       <c r="S96" s="4"/>
     </row>
-    <row r="97" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:19" ht="16.5">
       <c r="A97" s="7"/>
       <c r="B97" s="4"/>
       <c r="C97" s="7"/>
@@ -3451,7 +3546,7 @@
       <c r="R97" s="7"/>
       <c r="S97" s="4"/>
     </row>
-    <row r="98" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:19" ht="16.5">
       <c r="A98" s="7"/>
       <c r="B98" s="4"/>
       <c r="C98" s="7"/>
@@ -3472,7 +3567,7 @@
       <c r="R98" s="7"/>
       <c r="S98" s="4"/>
     </row>
-    <row r="99" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:19" ht="16.5">
       <c r="A99" s="7"/>
       <c r="B99" s="4"/>
       <c r="C99" s="7"/>
@@ -3493,7 +3588,7 @@
       <c r="R99" s="7"/>
       <c r="S99" s="4"/>
     </row>
-    <row r="100" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:19" ht="16.5">
       <c r="A100" s="7"/>
       <c r="B100" s="4"/>
       <c r="C100" s="7"/>
@@ -3514,7 +3609,7 @@
       <c r="R100" s="7"/>
       <c r="S100" s="4"/>
     </row>
-    <row r="101" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:19" ht="16.5">
       <c r="A101" s="7"/>
       <c r="B101" s="4"/>
       <c r="C101" s="7"/>
@@ -3535,7 +3630,7 @@
       <c r="R101" s="7"/>
       <c r="S101" s="4"/>
     </row>
-    <row r="102" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:19" ht="16.5">
       <c r="A102" s="7"/>
       <c r="B102" s="4"/>
       <c r="C102" s="7"/>
@@ -3556,7 +3651,7 @@
       <c r="R102" s="7"/>
       <c r="S102" s="4"/>
     </row>
-    <row r="103" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:19" ht="16.5">
       <c r="A103" s="7"/>
       <c r="B103" s="4"/>
       <c r="C103" s="7"/>
@@ -3577,7 +3672,7 @@
       <c r="R103" s="7"/>
       <c r="S103" s="4"/>
     </row>
-    <row r="104" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:19" ht="16.5">
       <c r="A104" s="7"/>
       <c r="B104" s="4"/>
       <c r="C104" s="7"/>
@@ -3598,7 +3693,7 @@
       <c r="R104" s="7"/>
       <c r="S104" s="4"/>
     </row>
-    <row r="105" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:19" ht="16.5">
       <c r="A105" s="7"/>
       <c r="B105" s="4"/>
       <c r="C105" s="7"/>
@@ -3619,7 +3714,7 @@
       <c r="R105" s="7"/>
       <c r="S105" s="4"/>
     </row>
-    <row r="106" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:19" ht="16.5">
       <c r="A106" s="7"/>
       <c r="B106" s="4"/>
       <c r="C106" s="7"/>
@@ -3640,7 +3735,7 @@
       <c r="R106" s="7"/>
       <c r="S106" s="4"/>
     </row>
-    <row r="107" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:19" ht="16.5">
       <c r="A107" s="7"/>
       <c r="B107" s="4"/>
       <c r="C107" s="7"/>
@@ -3661,7 +3756,7 @@
       <c r="R107" s="7"/>
       <c r="S107" s="4"/>
     </row>
-    <row r="108" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:19" ht="16.5">
       <c r="A108" s="7"/>
       <c r="B108" s="4"/>
       <c r="C108" s="7"/>
@@ -3682,7 +3777,7 @@
       <c r="R108" s="7"/>
       <c r="S108" s="4"/>
     </row>
-    <row r="109" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:19" ht="16.5">
       <c r="A109" s="7"/>
       <c r="B109" s="4"/>
       <c r="C109" s="7"/>
@@ -3703,7 +3798,7 @@
       <c r="R109" s="7"/>
       <c r="S109" s="4"/>
     </row>
-    <row r="110" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:19" ht="16.5">
       <c r="A110" s="7"/>
       <c r="B110" s="4"/>
       <c r="C110" s="7"/>
@@ -3724,7 +3819,7 @@
       <c r="R110" s="7"/>
       <c r="S110" s="4"/>
     </row>
-    <row r="111" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:19" ht="16.5">
       <c r="A111" s="7"/>
       <c r="B111" s="4"/>
       <c r="C111" s="7"/>
@@ -3745,7 +3840,7 @@
       <c r="R111" s="7"/>
       <c r="S111" s="4"/>
     </row>
-    <row r="112" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:19" ht="16.5">
       <c r="A112" s="7"/>
       <c r="B112" s="4"/>
       <c r="C112" s="7"/>
@@ -3766,7 +3861,7 @@
       <c r="R112" s="7"/>
       <c r="S112" s="4"/>
     </row>
-    <row r="113" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:19" ht="16.5">
       <c r="A113" s="7"/>
       <c r="B113" s="4"/>
       <c r="C113" s="7"/>
@@ -3787,7 +3882,7 @@
       <c r="R113" s="7"/>
       <c r="S113" s="4"/>
     </row>
-    <row r="114" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:19" ht="16.5">
       <c r="A114" s="7"/>
       <c r="B114" s="4"/>
       <c r="C114" s="7"/>
@@ -3808,7 +3903,7 @@
       <c r="R114" s="7"/>
       <c r="S114" s="4"/>
     </row>
-    <row r="115" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:19" ht="16.5">
       <c r="A115" s="7"/>
       <c r="B115" s="4"/>
       <c r="C115" s="7"/>
@@ -3829,7 +3924,7 @@
       <c r="R115" s="7"/>
       <c r="S115" s="4"/>
     </row>
-    <row r="116" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:19" ht="16.5">
       <c r="A116" s="7"/>
       <c r="B116" s="4"/>
       <c r="C116" s="7"/>
@@ -3847,7 +3942,7 @@
       <c r="O116" s="4"/>
       <c r="S116" s="4"/>
     </row>
-    <row r="117" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:19" ht="16.5">
       <c r="A117" s="7"/>
       <c r="B117" s="4"/>
       <c r="C117" s="7"/>
@@ -3865,7 +3960,7 @@
       <c r="O117" s="4"/>
       <c r="S117" s="4"/>
     </row>
-    <row r="118" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:19" ht="16.5">
       <c r="A118" s="7"/>
       <c r="B118" s="4"/>
       <c r="C118" s="7"/>
@@ -3883,7 +3978,7 @@
       <c r="O118" s="4"/>
       <c r="S118" s="4"/>
     </row>
-    <row r="119" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:19" ht="16.5">
       <c r="A119" s="7"/>
       <c r="B119" s="4"/>
       <c r="C119" s="7"/>
@@ -3901,7 +3996,7 @@
       <c r="O119" s="4"/>
       <c r="S119" s="4"/>
     </row>
-    <row r="120" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:19" ht="16.5">
       <c r="A120" s="7"/>
       <c r="B120" s="4"/>
       <c r="C120" s="7"/>
@@ -3919,7 +4014,7 @@
       <c r="O120" s="4"/>
       <c r="S120" s="4"/>
     </row>
-    <row r="121" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:19" ht="16.5">
       <c r="A121" s="7"/>
       <c r="B121" s="4"/>
       <c r="C121" s="7"/>
@@ -3937,7 +4032,7 @@
       <c r="O121" s="4"/>
       <c r="S121" s="4"/>
     </row>
-    <row r="122" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:19" ht="16.5">
       <c r="A122" s="7"/>
       <c r="B122" s="4"/>
       <c r="C122" s="7"/>
@@ -3955,7 +4050,7 @@
       <c r="O122" s="4"/>
       <c r="S122" s="4"/>
     </row>
-    <row r="123" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:19" ht="16.5">
       <c r="A123" s="7"/>
       <c r="B123" s="4"/>
       <c r="C123" s="7"/>
@@ -3973,7 +4068,7 @@
       <c r="O123" s="4"/>
       <c r="S123" s="4"/>
     </row>
-    <row r="124" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:19" ht="16.5">
       <c r="A124" s="7"/>
       <c r="B124" s="4"/>
       <c r="C124" s="7"/>
@@ -3991,7 +4086,7 @@
       <c r="O124" s="4"/>
       <c r="S124" s="4"/>
     </row>
-    <row r="125" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:19" ht="16.5">
       <c r="A125" s="7"/>
       <c r="B125" s="4"/>
       <c r="C125" s="7"/>
@@ -4009,7 +4104,7 @@
       <c r="O125" s="4"/>
       <c r="S125" s="4"/>
     </row>
-    <row r="126" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:19" ht="16.5">
       <c r="A126" s="7"/>
       <c r="B126" s="4"/>
       <c r="C126" s="7"/>
@@ -4027,7 +4122,7 @@
       <c r="O126" s="4"/>
       <c r="S126" s="4"/>
     </row>
-    <row r="127" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:19" ht="16.5">
       <c r="A127" s="7"/>
       <c r="B127" s="4"/>
       <c r="C127" s="7"/>
@@ -4045,7 +4140,7 @@
       <c r="O127" s="4"/>
       <c r="S127" s="4"/>
     </row>
-    <row r="128" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:19" ht="16.5">
       <c r="A128" s="7"/>
       <c r="B128" s="4"/>
       <c r="C128" s="7"/>
@@ -4063,7 +4158,7 @@
       <c r="O128" s="4"/>
       <c r="S128" s="4"/>
     </row>
-    <row r="129" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:19" ht="16.5">
       <c r="A129" s="7"/>
       <c r="B129" s="4"/>
       <c r="C129" s="7"/>
@@ -4081,7 +4176,7 @@
       <c r="O129" s="4"/>
       <c r="S129" s="4"/>
     </row>
-    <row r="130" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:19" ht="16.5">
       <c r="A130" s="7"/>
       <c r="B130" s="4"/>
       <c r="C130" s="7"/>
@@ -4099,7 +4194,7 @@
       <c r="O130" s="4"/>
       <c r="S130" s="4"/>
     </row>
-    <row r="131" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:19" ht="16.5">
       <c r="A131" s="7"/>
       <c r="B131" s="4"/>
       <c r="C131" s="7"/>
@@ -4117,7 +4212,7 @@
       <c r="O131" s="4"/>
       <c r="S131" s="4"/>
     </row>
-    <row r="132" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:19" ht="16.5">
       <c r="A132" s="7"/>
       <c r="B132" s="4"/>
       <c r="C132" s="7"/>
@@ -4135,7 +4230,7 @@
       <c r="O132" s="4"/>
       <c r="S132" s="4"/>
     </row>
-    <row r="133" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:19" ht="16.5">
       <c r="A133" s="7"/>
       <c r="B133" s="4"/>
       <c r="C133" s="7"/>
@@ -4153,7 +4248,7 @@
       <c r="O133" s="4"/>
       <c r="S133" s="4"/>
     </row>
-    <row r="134" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:19" ht="16.5">
       <c r="A134" s="7"/>
       <c r="B134" s="4"/>
       <c r="C134" s="7"/>
@@ -4171,7 +4266,7 @@
       <c r="O134" s="4"/>
       <c r="S134" s="4"/>
     </row>
-    <row r="135" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:19" ht="16.5">
       <c r="A135" s="7"/>
       <c r="B135" s="4"/>
       <c r="C135" s="7"/>
@@ -4189,7 +4284,7 @@
       <c r="O135" s="4"/>
       <c r="S135" s="4"/>
     </row>
-    <row r="136" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:19" ht="16.5">
       <c r="A136" s="7"/>
       <c r="B136" s="4"/>
       <c r="C136" s="7"/>
@@ -4207,7 +4302,7 @@
       <c r="O136" s="4"/>
       <c r="S136" s="4"/>
     </row>
-    <row r="137" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:19" ht="16.5">
       <c r="A137" s="7"/>
       <c r="B137" s="4"/>
       <c r="C137" s="7"/>
@@ -4225,7 +4320,7 @@
       <c r="O137" s="4"/>
       <c r="S137" s="4"/>
     </row>
-    <row r="138" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:19" ht="16.5">
       <c r="A138" s="7"/>
       <c r="B138" s="4"/>
       <c r="C138" s="7"/>
@@ -4243,7 +4338,7 @@
       <c r="O138" s="4"/>
       <c r="S138" s="4"/>
     </row>
-    <row r="139" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:19" ht="16.5">
       <c r="A139" s="7"/>
       <c r="B139" s="4"/>
       <c r="C139" s="7"/>
@@ -4261,7 +4356,7 @@
       <c r="O139" s="4"/>
       <c r="S139" s="4"/>
     </row>
-    <row r="140" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:19" ht="16.5">
       <c r="A140" s="7"/>
       <c r="B140" s="4"/>
       <c r="C140" s="7"/>
@@ -4279,7 +4374,7 @@
       <c r="O140" s="4"/>
       <c r="S140" s="4"/>
     </row>
-    <row r="141" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:19" ht="16.5">
       <c r="A141" s="7"/>
       <c r="B141" s="4"/>
       <c r="C141" s="7"/>
@@ -4297,7 +4392,7 @@
       <c r="O141" s="4"/>
       <c r="S141" s="4"/>
     </row>
-    <row r="142" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:19" ht="16.5">
       <c r="A142" s="7"/>
       <c r="B142" s="4"/>
       <c r="C142" s="7"/>
@@ -4315,7 +4410,7 @@
       <c r="O142" s="4"/>
       <c r="S142" s="4"/>
     </row>
-    <row r="143" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:19" ht="16.5">
       <c r="A143" s="7"/>
       <c r="B143" s="4"/>
       <c r="C143" s="7"/>
@@ -4333,7 +4428,7 @@
       <c r="O143" s="4"/>
       <c r="S143" s="4"/>
     </row>
-    <row r="144" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:19" ht="16.5">
       <c r="A144" s="7"/>
       <c r="B144" s="4"/>
       <c r="C144" s="7"/>
@@ -4351,7 +4446,7 @@
       <c r="O144" s="4"/>
       <c r="S144" s="4"/>
     </row>
-    <row r="145" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:19" ht="16.5">
       <c r="A145" s="7"/>
       <c r="B145" s="4"/>
       <c r="C145" s="7"/>
@@ -4369,7 +4464,7 @@
       <c r="O145" s="4"/>
       <c r="S145" s="4"/>
     </row>
-    <row r="146" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:19" ht="16.5">
       <c r="A146" s="7"/>
       <c r="B146" s="4"/>
       <c r="C146" s="7"/>
@@ -4387,7 +4482,7 @@
       <c r="O146" s="4"/>
       <c r="S146" s="4"/>
     </row>
-    <row r="147" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:19" ht="16.5">
       <c r="A147" s="7"/>
       <c r="B147" s="4"/>
       <c r="C147" s="7"/>
@@ -4405,7 +4500,7 @@
       <c r="O147" s="4"/>
       <c r="S147" s="4"/>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:19">
       <c r="A148" s="7"/>
       <c r="B148" s="4"/>
       <c r="C148" s="7"/>
@@ -4423,7 +4518,7 @@
       <c r="O148" s="4"/>
       <c r="S148" s="4"/>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:19">
       <c r="A149" s="7"/>
       <c r="B149" s="4"/>
       <c r="C149" s="7"/>
@@ -4441,7 +4536,7 @@
       <c r="O149" s="4"/>
       <c r="S149" s="4"/>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:19">
       <c r="A150" s="7"/>
       <c r="B150" s="4"/>
       <c r="C150" s="7"/>
@@ -4467,45 +4562,45 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="4" max="4" width="30.5" customWidth="1"/>
     <col min="7" max="7" width="22.75" customWidth="1"/>
     <col min="8" max="8" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="40"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="42"/>
-    </row>
-    <row r="3" spans="1:9" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="42"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="44"/>
+    </row>
+    <row r="3" spans="1:9" s="26" customFormat="1" ht="16.5">
       <c r="A3" s="24" t="s">
         <v>28</v>
       </c>
@@ -4534,7 +4629,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9">
       <c r="A4" s="19"/>
       <c r="B4" s="27" t="s">
         <v>36</v>
@@ -4549,7 +4644,7 @@
       <c r="H4" s="27"/>
       <c r="I4" s="27"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="A5" s="19"/>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
@@ -4560,7 +4655,7 @@
       <c r="H5" s="27"/>
       <c r="I5" s="27"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9">
       <c r="A6" s="19"/>
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
@@ -4571,7 +4666,7 @@
       <c r="H6" s="27"/>
       <c r="I6" s="27"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9">
       <c r="A7" s="19"/>
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
@@ -4582,7 +4677,7 @@
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="A8" s="19"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
@@ -4593,7 +4688,7 @@
       <c r="H8" s="19"/>
       <c r="I8" s="19"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9">
       <c r="A9" s="19"/>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
@@ -4604,7 +4699,7 @@
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9">
       <c r="A10" s="19"/>
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
@@ -4615,7 +4710,7 @@
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9">
       <c r="A11" s="19"/>
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
@@ -4626,7 +4721,7 @@
       <c r="H11" s="19"/>
       <c r="I11" s="19"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9">
       <c r="A12" s="19"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
@@ -4637,7 +4732,7 @@
       <c r="H12" s="19"/>
       <c r="I12" s="19"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
@@ -4648,7 +4743,7 @@
       <c r="H13" s="19"/>
       <c r="I13" s="19"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9">
       <c r="A14" s="19"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
@@ -4677,14 +4772,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="43.25" customWidth="1"/>
@@ -4695,7 +4790,7 @@
     <col min="8" max="8" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="18" t="s">
         <v>18</v>
       </c>
@@ -4721,7 +4816,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" s="2" customFormat="1">
       <c r="A2" s="20"/>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
@@ -4731,7 +4826,7 @@
       <c r="G2" s="20"/>
       <c r="H2" s="20"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" s="19"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -4741,7 +4836,7 @@
       <c r="G3" s="19"/>
       <c r="H3" s="19"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="19"/>
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
@@ -4751,7 +4846,7 @@
       <c r="G4" s="19"/>
       <c r="H4" s="19"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="19"/>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
@@ -4761,7 +4856,7 @@
       <c r="G5" s="19"/>
       <c r="H5" s="19"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="19"/>
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
@@ -4771,7 +4866,7 @@
       <c r="G6" s="19"/>
       <c r="H6" s="19"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="19"/>
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
@@ -4781,7 +4876,7 @@
       <c r="G7" s="19"/>
       <c r="H7" s="19"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8" s="19"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
@@ -4791,7 +4886,7 @@
       <c r="G8" s="19"/>
       <c r="H8" s="19"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9" s="19"/>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
@@ -4801,7 +4896,7 @@
       <c r="G9" s="19"/>
       <c r="H9" s="19"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="19"/>
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
@@ -4811,7 +4906,7 @@
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11" s="19"/>
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
@@ -4821,7 +4916,7 @@
       <c r="G11" s="19"/>
       <c r="H11" s="19"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12" s="19"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
@@ -4831,7 +4926,7 @@
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
@@ -4841,7 +4936,7 @@
       <c r="G13" s="19"/>
       <c r="H13" s="19"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14" s="19"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
@@ -4851,7 +4946,7 @@
       <c r="G14" s="19"/>
       <c r="H14" s="19"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="A15" s="19"/>
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
@@ -4861,7 +4956,7 @@
       <c r="G15" s="19"/>
       <c r="H15" s="19"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="A16" s="19"/>
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
@@ -4871,7 +4966,7 @@
       <c r="G16" s="19"/>
       <c r="H16" s="19"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8">
       <c r="A17" s="19"/>
       <c r="B17" s="19"/>
       <c r="C17" s="19"/>
@@ -4881,7 +4976,7 @@
       <c r="G17" s="19"/>
       <c r="H17" s="19"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8">
       <c r="A18" s="19"/>
       <c r="B18" s="19"/>
       <c r="C18" s="19"/>
@@ -4891,7 +4986,7 @@
       <c r="G18" s="19"/>
       <c r="H18" s="19"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8">
       <c r="A19" s="19"/>
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
@@ -4913,14 +5008,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.875" customWidth="1"/>
     <col min="2" max="2" width="10.125" style="33" customWidth="1"/>
@@ -5756,39 +5851,39 @@
     <col min="16141" max="16141" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="40"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="42"/>
-    </row>
-    <row r="3" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="42"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="44"/>
+    </row>
+    <row r="3" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A3" s="24" t="s">
         <v>28</v>
       </c>
@@ -5807,10 +5902,10 @@
       <c r="F3" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="43" t="s">
+      <c r="G3" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="44" t="s">
+      <c r="H3" s="40" t="s">
         <v>42</v>
       </c>
       <c r="I3" s="24" t="s">
@@ -5829,7 +5924,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="26" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" s="26" customFormat="1" ht="68.25" customHeight="1">
       <c r="A4" s="29">
         <v>1</v>
       </c>
@@ -5868,7 +5963,7 @@
       </c>
       <c r="M4" s="31"/>
     </row>
-    <row r="5" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A5" s="29"/>
       <c r="B5" s="29"/>
       <c r="C5" s="29"/>
@@ -5883,7 +5978,7 @@
       <c r="L5" s="29"/>
       <c r="M5" s="31"/>
     </row>
-    <row r="6" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A6" s="29"/>
       <c r="B6" s="29"/>
       <c r="C6" s="29"/>
@@ -5898,7 +5993,7 @@
       <c r="L6" s="29"/>
       <c r="M6" s="31"/>
     </row>
-    <row r="7" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A7" s="29"/>
       <c r="B7" s="29"/>
       <c r="C7" s="29"/>
@@ -5913,7 +6008,7 @@
       <c r="L7" s="29"/>
       <c r="M7" s="29"/>
     </row>
-    <row r="8" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A8" s="29"/>
       <c r="B8" s="29"/>
       <c r="C8" s="29"/>
@@ -5928,7 +6023,7 @@
       <c r="L8" s="29"/>
       <c r="M8" s="29"/>
     </row>
-    <row r="9" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A9" s="29"/>
       <c r="B9" s="29"/>
       <c r="C9" s="29"/>
@@ -5943,7 +6038,7 @@
       <c r="L9" s="29"/>
       <c r="M9" s="29"/>
     </row>
-    <row r="10" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A10" s="29"/>
       <c r="B10" s="29"/>
       <c r="C10" s="29"/>
@@ -5958,7 +6053,7 @@
       <c r="L10" s="29"/>
       <c r="M10" s="29"/>
     </row>
-    <row r="11" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A11" s="29"/>
       <c r="B11" s="29"/>
       <c r="C11" s="29"/>
@@ -5973,7 +6068,7 @@
       <c r="L11" s="29"/>
       <c r="M11" s="29"/>
     </row>
-    <row r="12" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A12" s="29"/>
       <c r="B12" s="29"/>
       <c r="C12" s="29"/>
@@ -5988,7 +6083,7 @@
       <c r="L12" s="29"/>
       <c r="M12" s="29"/>
     </row>
-    <row r="13" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A13" s="29"/>
       <c r="B13" s="29"/>
       <c r="C13" s="29"/>
@@ -6025,14 +6120,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.875" customWidth="1"/>
     <col min="2" max="2" width="10.125" style="33" customWidth="1"/>
@@ -6868,39 +6963,39 @@
     <col min="16141" max="16141" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="40"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="42"/>
-    </row>
-    <row r="3" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="42"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="44"/>
+    </row>
+    <row r="3" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A3" s="24" t="s">
         <v>28</v>
       </c>
@@ -6941,7 +7036,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="26" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" s="26" customFormat="1" ht="68.25" customHeight="1">
       <c r="A4" s="29">
         <v>1</v>
       </c>
@@ -6980,7 +7075,7 @@
       </c>
       <c r="M4" s="31"/>
     </row>
-    <row r="5" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A5" s="29"/>
       <c r="B5" s="29"/>
       <c r="C5" s="29"/>
@@ -6995,7 +7090,7 @@
       <c r="L5" s="29"/>
       <c r="M5" s="31"/>
     </row>
-    <row r="6" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A6" s="29"/>
       <c r="B6" s="29"/>
       <c r="C6" s="29"/>
@@ -7010,7 +7105,7 @@
       <c r="L6" s="29"/>
       <c r="M6" s="31"/>
     </row>
-    <row r="7" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A7" s="29"/>
       <c r="B7" s="29"/>
       <c r="C7" s="29"/>
@@ -7025,7 +7120,7 @@
       <c r="L7" s="29"/>
       <c r="M7" s="29"/>
     </row>
-    <row r="8" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A8" s="29"/>
       <c r="B8" s="29"/>
       <c r="C8" s="29"/>
@@ -7040,7 +7135,7 @@
       <c r="L8" s="29"/>
       <c r="M8" s="29"/>
     </row>
-    <row r="9" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A9" s="29"/>
       <c r="B9" s="29"/>
       <c r="C9" s="29"/>
@@ -7055,7 +7150,7 @@
       <c r="L9" s="29"/>
       <c r="M9" s="29"/>
     </row>
-    <row r="10" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A10" s="29"/>
       <c r="B10" s="29"/>
       <c r="C10" s="29"/>
@@ -7070,7 +7165,7 @@
       <c r="L10" s="29"/>
       <c r="M10" s="29"/>
     </row>
-    <row r="11" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A11" s="29"/>
       <c r="B11" s="29"/>
       <c r="C11" s="29"/>
@@ -7085,7 +7180,7 @@
       <c r="L11" s="29"/>
       <c r="M11" s="29"/>
     </row>
-    <row r="12" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A12" s="29"/>
       <c r="B12" s="29"/>
       <c r="C12" s="29"/>
@@ -7100,7 +7195,7 @@
       <c r="L12" s="29"/>
       <c r="M12" s="29"/>
     </row>
-    <row r="13" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A13" s="29"/>
       <c r="B13" s="29"/>
       <c r="C13" s="29"/>
@@ -7136,14 +7231,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.875" customWidth="1"/>
     <col min="2" max="2" width="10.125" style="33" customWidth="1"/>
@@ -7979,39 +8074,39 @@
     <col min="16141" max="16141" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="40"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="42"/>
-    </row>
-    <row r="3" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="42"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="44"/>
+    </row>
+    <row r="3" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A3" s="24" t="s">
         <v>28</v>
       </c>
@@ -8052,7 +8147,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="26" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" s="26" customFormat="1" ht="68.25" customHeight="1">
       <c r="A4" s="29">
         <v>1</v>
       </c>
@@ -8091,7 +8186,7 @@
       </c>
       <c r="M4" s="31"/>
     </row>
-    <row r="5" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A5" s="29"/>
       <c r="B5" s="29"/>
       <c r="C5" s="29"/>
@@ -8106,7 +8201,7 @@
       <c r="L5" s="29"/>
       <c r="M5" s="31"/>
     </row>
-    <row r="6" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A6" s="29"/>
       <c r="B6" s="29"/>
       <c r="C6" s="29"/>
@@ -8121,7 +8216,7 @@
       <c r="L6" s="29"/>
       <c r="M6" s="31"/>
     </row>
-    <row r="7" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A7" s="29"/>
       <c r="B7" s="29"/>
       <c r="C7" s="29"/>
@@ -8136,7 +8231,7 @@
       <c r="L7" s="29"/>
       <c r="M7" s="29"/>
     </row>
-    <row r="8" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A8" s="29"/>
       <c r="B8" s="29"/>
       <c r="C8" s="29"/>
@@ -8151,7 +8246,7 @@
       <c r="L8" s="29"/>
       <c r="M8" s="29"/>
     </row>
-    <row r="9" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A9" s="29"/>
       <c r="B9" s="29"/>
       <c r="C9" s="29"/>
@@ -8166,7 +8261,7 @@
       <c r="L9" s="29"/>
       <c r="M9" s="29"/>
     </row>
-    <row r="10" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A10" s="29"/>
       <c r="B10" s="29"/>
       <c r="C10" s="29"/>
@@ -8181,7 +8276,7 @@
       <c r="L10" s="29"/>
       <c r="M10" s="29"/>
     </row>
-    <row r="11" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A11" s="29"/>
       <c r="B11" s="29"/>
       <c r="C11" s="29"/>
@@ -8196,7 +8291,7 @@
       <c r="L11" s="29"/>
       <c r="M11" s="29"/>
     </row>
-    <row r="12" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A12" s="29"/>
       <c r="B12" s="29"/>
       <c r="C12" s="29"/>
@@ -8211,7 +8306,7 @@
       <c r="L12" s="29"/>
       <c r="M12" s="29"/>
     </row>
-    <row r="13" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A13" s="29"/>
       <c r="B13" s="29"/>
       <c r="C13" s="29"/>

--- a/VersionRecords/Version 5.0.2/版本Bug和特性计划及评审表v5.0.2_EQ组.xlsx
+++ b/VersionRecords/Version 5.0.2/版本Bug和特性计划及评审表v5.0.2_EQ组.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="102">
   <si>
     <t>No</t>
   </si>
@@ -423,6 +423,10 @@
   </si>
   <si>
     <t>能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴永余</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1190,7 +1194,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N10" sqref="N10"/>
+      <selection pane="bottomRight" activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1310,7 +1314,7 @@
         <v>49</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="M2" s="12" t="s">
         <v>99</v>
@@ -1409,7 +1413,7 @@
         <v>79</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="M4" s="12" t="s">
         <v>99</v>

--- a/VersionRecords/Version 5.0.2/版本Bug和特性计划及评审表v5.0.2_EQ组.xlsx
+++ b/VersionRecords/Version 5.0.2/版本Bug和特性计划及评审表v5.0.2_EQ组.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="5730" yWindow="3870" windowWidth="25125" windowHeight="11760"/>
+    <workbookView xWindow="5730" yWindow="3870" windowWidth="25125" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="版本5.0.2 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'(预发布)需要修改的配置文件'!$A$1:$M$4</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -543,6 +543,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -848,6 +849,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -867,7 +936,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1190,11 +1259,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T150"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L14" sqref="L14"/>
+      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4779,8 +4848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5016,7 +5085,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6127,8 +6196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7238,8 +7307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/VersionRecords/Version 5.0.2/版本Bug和特性计划及评审表v5.0.2_EQ组.xlsx
+++ b/VersionRecords/Version 5.0.2/版本Bug和特性计划及评审表v5.0.2_EQ组.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataStar\DataCode\GitDoc\Mogo_Doc\VersionRecords\Version 5.0.2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5730" yWindow="3870" windowWidth="25125" windowHeight="11760" activeTab="2"/>
+    <workbookView xWindow="5730" yWindow="3870" windowWidth="25125" windowHeight="11760" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="版本5.0.2 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -17,12 +22,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'(预发布)需要修改的配置文件'!$A$1:$M$4</definedName>
   </definedNames>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="106">
   <si>
     <t>No</t>
   </si>
@@ -429,12 +434,28 @@
     <t>吴永余</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>nginx</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以配置到所有项目nginx server上</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以配置到所有项目nginx server上</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以配置到所有项目nginx server上</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="16">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -849,74 +870,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -936,7 +889,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1256,7 +1209,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1266,7 +1219,7 @@
       <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.5" style="14" customWidth="1"/>
     <col min="2" max="2" width="42.125" style="15" customWidth="1"/>
@@ -1291,7 +1244,7 @@
     <col min="21" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" ht="27.75" thickBot="1">
+    <row r="1" spans="1:20" s="1" customFormat="1" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1350,7 +1303,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="9" customFormat="1" ht="19.5" customHeight="1">
+    <row r="2" spans="1:20" s="9" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="16">
         <v>1</v>
       </c>
@@ -1400,7 +1353,7 @@
       <c r="S2" s="13"/>
       <c r="T2" s="8"/>
     </row>
-    <row r="3" spans="1:20" ht="16.5">
+    <row r="3" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="16">
         <v>2</v>
       </c>
@@ -1449,7 +1402,7 @@
       <c r="R3" s="7"/>
       <c r="S3" s="4"/>
     </row>
-    <row r="4" spans="1:20" ht="33">
+    <row r="4" spans="1:20" ht="33" x14ac:dyDescent="0.15">
       <c r="A4" s="16">
         <v>3</v>
       </c>
@@ -1498,7 +1451,7 @@
       <c r="R4" s="7"/>
       <c r="S4" s="4"/>
     </row>
-    <row r="5" spans="1:20" ht="49.5">
+    <row r="5" spans="1:20" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A5" s="16">
         <v>4</v>
       </c>
@@ -1547,7 +1500,7 @@
       <c r="R5" s="7"/>
       <c r="S5" s="4"/>
     </row>
-    <row r="6" spans="1:20" ht="33">
+    <row r="6" spans="1:20" ht="33" x14ac:dyDescent="0.15">
       <c r="A6" s="16">
         <v>5</v>
       </c>
@@ -1596,7 +1549,7 @@
       <c r="R6" s="7"/>
       <c r="S6" s="4"/>
     </row>
-    <row r="7" spans="1:20" ht="33">
+    <row r="7" spans="1:20" ht="33" x14ac:dyDescent="0.15">
       <c r="A7" s="16">
         <v>6</v>
       </c>
@@ -1645,7 +1598,7 @@
       <c r="R7" s="7"/>
       <c r="S7" s="4"/>
     </row>
-    <row r="8" spans="1:20" ht="49.5">
+    <row r="8" spans="1:20" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A8" s="16">
         <v>7</v>
       </c>
@@ -1694,7 +1647,7 @@
       <c r="R8" s="7"/>
       <c r="S8" s="4"/>
     </row>
-    <row r="9" spans="1:20" ht="33">
+    <row r="9" spans="1:20" ht="33" x14ac:dyDescent="0.15">
       <c r="A9" s="16">
         <v>8</v>
       </c>
@@ -1743,7 +1696,7 @@
       <c r="R9" s="7"/>
       <c r="S9" s="4"/>
     </row>
-    <row r="10" spans="1:20" ht="33">
+    <row r="10" spans="1:20" ht="33" x14ac:dyDescent="0.15">
       <c r="A10" s="16">
         <v>9</v>
       </c>
@@ -1792,7 +1745,7 @@
       <c r="R10" s="7"/>
       <c r="S10" s="4"/>
     </row>
-    <row r="11" spans="1:20" ht="16.5">
+    <row r="11" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="7"/>
       <c r="B11" s="4"/>
       <c r="C11" s="7"/>
@@ -1813,7 +1766,7 @@
       <c r="R11" s="7"/>
       <c r="S11" s="4"/>
     </row>
-    <row r="12" spans="1:20" ht="16.5">
+    <row r="12" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="7"/>
       <c r="B12" s="4"/>
       <c r="C12" s="7"/>
@@ -1834,7 +1787,7 @@
       <c r="R12" s="7"/>
       <c r="S12" s="4"/>
     </row>
-    <row r="13" spans="1:20" ht="16.5">
+    <row r="13" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="7"/>
       <c r="B13" s="4"/>
       <c r="C13" s="7"/>
@@ -1855,7 +1808,7 @@
       <c r="R13" s="7"/>
       <c r="S13" s="4"/>
     </row>
-    <row r="14" spans="1:20" ht="16.5">
+    <row r="14" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="7"/>
       <c r="B14" s="4"/>
       <c r="C14" s="7"/>
@@ -1876,7 +1829,7 @@
       <c r="R14" s="7"/>
       <c r="S14" s="4"/>
     </row>
-    <row r="15" spans="1:20" ht="16.5">
+    <row r="15" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="7"/>
       <c r="B15" s="4"/>
       <c r="C15" s="7"/>
@@ -1897,7 +1850,7 @@
       <c r="R15" s="7"/>
       <c r="S15" s="4"/>
     </row>
-    <row r="16" spans="1:20" ht="16.5">
+    <row r="16" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="7"/>
       <c r="B16" s="4"/>
       <c r="C16" s="7"/>
@@ -1918,7 +1871,7 @@
       <c r="R16" s="7"/>
       <c r="S16" s="4"/>
     </row>
-    <row r="17" spans="1:19" ht="16.5">
+    <row r="17" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A17" s="7"/>
       <c r="B17" s="4"/>
       <c r="C17" s="7"/>
@@ -1939,7 +1892,7 @@
       <c r="R17" s="7"/>
       <c r="S17" s="4"/>
     </row>
-    <row r="18" spans="1:19" ht="16.5">
+    <row r="18" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A18" s="7"/>
       <c r="B18" s="4"/>
       <c r="C18" s="7"/>
@@ -1960,7 +1913,7 @@
       <c r="R18" s="7"/>
       <c r="S18" s="4"/>
     </row>
-    <row r="19" spans="1:19" ht="16.5">
+    <row r="19" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="7"/>
       <c r="B19" s="4"/>
       <c r="C19" s="7"/>
@@ -1981,7 +1934,7 @@
       <c r="R19" s="7"/>
       <c r="S19" s="4"/>
     </row>
-    <row r="20" spans="1:19" ht="16.5">
+    <row r="20" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="7"/>
       <c r="B20" s="4"/>
       <c r="C20" s="7"/>
@@ -2002,7 +1955,7 @@
       <c r="R20" s="7"/>
       <c r="S20" s="4"/>
     </row>
-    <row r="21" spans="1:19" ht="16.5">
+    <row r="21" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="7"/>
       <c r="B21" s="4"/>
       <c r="C21" s="7"/>
@@ -2023,7 +1976,7 @@
       <c r="R21" s="7"/>
       <c r="S21" s="4"/>
     </row>
-    <row r="22" spans="1:19" ht="16.5">
+    <row r="22" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="7"/>
       <c r="B22" s="4"/>
       <c r="C22" s="7"/>
@@ -2044,7 +1997,7 @@
       <c r="R22" s="7"/>
       <c r="S22" s="4"/>
     </row>
-    <row r="23" spans="1:19" ht="16.5">
+    <row r="23" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="7"/>
       <c r="B23" s="4"/>
       <c r="C23" s="7"/>
@@ -2065,7 +2018,7 @@
       <c r="R23" s="7"/>
       <c r="S23" s="4"/>
     </row>
-    <row r="24" spans="1:19" ht="16.5">
+    <row r="24" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="7"/>
       <c r="B24" s="4"/>
       <c r="C24" s="7"/>
@@ -2086,7 +2039,7 @@
       <c r="R24" s="7"/>
       <c r="S24" s="4"/>
     </row>
-    <row r="25" spans="1:19" ht="16.5">
+    <row r="25" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A25" s="7"/>
       <c r="B25" s="4"/>
       <c r="C25" s="7"/>
@@ -2107,7 +2060,7 @@
       <c r="R25" s="7"/>
       <c r="S25" s="4"/>
     </row>
-    <row r="26" spans="1:19" ht="16.5">
+    <row r="26" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A26" s="7"/>
       <c r="B26" s="4"/>
       <c r="C26" s="7"/>
@@ -2128,7 +2081,7 @@
       <c r="R26" s="7"/>
       <c r="S26" s="4"/>
     </row>
-    <row r="27" spans="1:19" ht="16.5">
+    <row r="27" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A27" s="7"/>
       <c r="B27" s="4"/>
       <c r="C27" s="7"/>
@@ -2149,7 +2102,7 @@
       <c r="R27" s="7"/>
       <c r="S27" s="4"/>
     </row>
-    <row r="28" spans="1:19" ht="16.5">
+    <row r="28" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="7"/>
       <c r="B28" s="4"/>
       <c r="C28" s="7"/>
@@ -2170,7 +2123,7 @@
       <c r="R28" s="7"/>
       <c r="S28" s="4"/>
     </row>
-    <row r="29" spans="1:19" ht="16.5">
+    <row r="29" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A29" s="7"/>
       <c r="B29" s="4"/>
       <c r="C29" s="7"/>
@@ -2191,7 +2144,7 @@
       <c r="R29" s="7"/>
       <c r="S29" s="4"/>
     </row>
-    <row r="30" spans="1:19" ht="16.5">
+    <row r="30" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A30" s="7"/>
       <c r="B30" s="4"/>
       <c r="C30" s="7"/>
@@ -2212,7 +2165,7 @@
       <c r="R30" s="7"/>
       <c r="S30" s="4"/>
     </row>
-    <row r="31" spans="1:19" ht="16.5">
+    <row r="31" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A31" s="7"/>
       <c r="B31" s="4"/>
       <c r="C31" s="7"/>
@@ -2233,7 +2186,7 @@
       <c r="R31" s="7"/>
       <c r="S31" s="4"/>
     </row>
-    <row r="32" spans="1:19" ht="16.5">
+    <row r="32" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A32" s="7"/>
       <c r="B32" s="4"/>
       <c r="C32" s="7"/>
@@ -2254,7 +2207,7 @@
       <c r="R32" s="7"/>
       <c r="S32" s="4"/>
     </row>
-    <row r="33" spans="1:19" ht="16.5">
+    <row r="33" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A33" s="7"/>
       <c r="B33" s="4"/>
       <c r="C33" s="7"/>
@@ -2275,7 +2228,7 @@
       <c r="R33" s="7"/>
       <c r="S33" s="4"/>
     </row>
-    <row r="34" spans="1:19" ht="16.5">
+    <row r="34" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A34" s="7"/>
       <c r="B34" s="4"/>
       <c r="C34" s="7"/>
@@ -2296,7 +2249,7 @@
       <c r="R34" s="7"/>
       <c r="S34" s="4"/>
     </row>
-    <row r="35" spans="1:19" ht="16.5">
+    <row r="35" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A35" s="7"/>
       <c r="B35" s="4"/>
       <c r="C35" s="7"/>
@@ -2317,7 +2270,7 @@
       <c r="R35" s="7"/>
       <c r="S35" s="4"/>
     </row>
-    <row r="36" spans="1:19" ht="16.5">
+    <row r="36" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A36" s="7"/>
       <c r="B36" s="4"/>
       <c r="C36" s="7"/>
@@ -2338,7 +2291,7 @@
       <c r="R36" s="7"/>
       <c r="S36" s="4"/>
     </row>
-    <row r="37" spans="1:19" ht="16.5">
+    <row r="37" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A37" s="7"/>
       <c r="B37" s="4"/>
       <c r="C37" s="7"/>
@@ -2359,7 +2312,7 @@
       <c r="R37" s="7"/>
       <c r="S37" s="4"/>
     </row>
-    <row r="38" spans="1:19" ht="16.5">
+    <row r="38" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A38" s="7"/>
       <c r="B38" s="4"/>
       <c r="C38" s="7"/>
@@ -2380,7 +2333,7 @@
       <c r="R38" s="7"/>
       <c r="S38" s="4"/>
     </row>
-    <row r="39" spans="1:19" ht="16.5">
+    <row r="39" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A39" s="7"/>
       <c r="B39" s="4"/>
       <c r="C39" s="7"/>
@@ -2401,7 +2354,7 @@
       <c r="R39" s="7"/>
       <c r="S39" s="4"/>
     </row>
-    <row r="40" spans="1:19" ht="16.5">
+    <row r="40" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A40" s="7"/>
       <c r="B40" s="4"/>
       <c r="C40" s="7"/>
@@ -2422,7 +2375,7 @@
       <c r="R40" s="7"/>
       <c r="S40" s="4"/>
     </row>
-    <row r="41" spans="1:19" ht="16.5">
+    <row r="41" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A41" s="7"/>
       <c r="B41" s="4"/>
       <c r="C41" s="7"/>
@@ -2443,7 +2396,7 @@
       <c r="R41" s="7"/>
       <c r="S41" s="4"/>
     </row>
-    <row r="42" spans="1:19" ht="16.5">
+    <row r="42" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A42" s="7"/>
       <c r="B42" s="4"/>
       <c r="C42" s="7"/>
@@ -2464,7 +2417,7 @@
       <c r="R42" s="7"/>
       <c r="S42" s="4"/>
     </row>
-    <row r="43" spans="1:19" ht="16.5">
+    <row r="43" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A43" s="7"/>
       <c r="B43" s="4"/>
       <c r="C43" s="7"/>
@@ -2485,7 +2438,7 @@
       <c r="R43" s="7"/>
       <c r="S43" s="4"/>
     </row>
-    <row r="44" spans="1:19" ht="16.5">
+    <row r="44" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A44" s="7"/>
       <c r="B44" s="4"/>
       <c r="C44" s="7"/>
@@ -2506,7 +2459,7 @@
       <c r="R44" s="7"/>
       <c r="S44" s="4"/>
     </row>
-    <row r="45" spans="1:19" ht="16.5">
+    <row r="45" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A45" s="7"/>
       <c r="B45" s="4"/>
       <c r="C45" s="7"/>
@@ -2527,7 +2480,7 @@
       <c r="R45" s="7"/>
       <c r="S45" s="4"/>
     </row>
-    <row r="46" spans="1:19" ht="16.5">
+    <row r="46" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A46" s="7"/>
       <c r="B46" s="4"/>
       <c r="C46" s="7"/>
@@ -2548,7 +2501,7 @@
       <c r="R46" s="7"/>
       <c r="S46" s="4"/>
     </row>
-    <row r="47" spans="1:19" ht="16.5">
+    <row r="47" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A47" s="7"/>
       <c r="B47" s="4"/>
       <c r="C47" s="7"/>
@@ -2569,7 +2522,7 @@
       <c r="R47" s="7"/>
       <c r="S47" s="4"/>
     </row>
-    <row r="48" spans="1:19" ht="16.5">
+    <row r="48" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A48" s="7"/>
       <c r="B48" s="4"/>
       <c r="C48" s="7"/>
@@ -2590,7 +2543,7 @@
       <c r="R48" s="7"/>
       <c r="S48" s="4"/>
     </row>
-    <row r="49" spans="1:19" ht="16.5">
+    <row r="49" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A49" s="7"/>
       <c r="B49" s="4"/>
       <c r="C49" s="7"/>
@@ -2611,7 +2564,7 @@
       <c r="R49" s="7"/>
       <c r="S49" s="4"/>
     </row>
-    <row r="50" spans="1:19" ht="16.5">
+    <row r="50" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A50" s="7"/>
       <c r="B50" s="4"/>
       <c r="C50" s="7"/>
@@ -2632,7 +2585,7 @@
       <c r="R50" s="7"/>
       <c r="S50" s="4"/>
     </row>
-    <row r="51" spans="1:19" ht="16.5">
+    <row r="51" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A51" s="7"/>
       <c r="B51" s="4"/>
       <c r="C51" s="7"/>
@@ -2653,7 +2606,7 @@
       <c r="R51" s="7"/>
       <c r="S51" s="4"/>
     </row>
-    <row r="52" spans="1:19" ht="16.5">
+    <row r="52" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A52" s="7"/>
       <c r="B52" s="4"/>
       <c r="C52" s="7"/>
@@ -2674,7 +2627,7 @@
       <c r="R52" s="7"/>
       <c r="S52" s="4"/>
     </row>
-    <row r="53" spans="1:19" ht="16.5">
+    <row r="53" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A53" s="7"/>
       <c r="B53" s="4"/>
       <c r="C53" s="7"/>
@@ -2695,7 +2648,7 @@
       <c r="R53" s="7"/>
       <c r="S53" s="4"/>
     </row>
-    <row r="54" spans="1:19" ht="16.5">
+    <row r="54" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A54" s="7"/>
       <c r="B54" s="4"/>
       <c r="C54" s="7"/>
@@ -2716,7 +2669,7 @@
       <c r="R54" s="7"/>
       <c r="S54" s="4"/>
     </row>
-    <row r="55" spans="1:19" ht="16.5">
+    <row r="55" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A55" s="7"/>
       <c r="B55" s="4"/>
       <c r="C55" s="7"/>
@@ -2737,7 +2690,7 @@
       <c r="R55" s="7"/>
       <c r="S55" s="4"/>
     </row>
-    <row r="56" spans="1:19" ht="16.5">
+    <row r="56" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A56" s="7"/>
       <c r="B56" s="4"/>
       <c r="C56" s="7"/>
@@ -2758,7 +2711,7 @@
       <c r="R56" s="7"/>
       <c r="S56" s="4"/>
     </row>
-    <row r="57" spans="1:19" ht="16.5">
+    <row r="57" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A57" s="7"/>
       <c r="B57" s="4"/>
       <c r="C57" s="7"/>
@@ -2779,7 +2732,7 @@
       <c r="R57" s="7"/>
       <c r="S57" s="4"/>
     </row>
-    <row r="58" spans="1:19" ht="16.5">
+    <row r="58" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A58" s="7"/>
       <c r="B58" s="4"/>
       <c r="C58" s="7"/>
@@ -2800,7 +2753,7 @@
       <c r="R58" s="7"/>
       <c r="S58" s="4"/>
     </row>
-    <row r="59" spans="1:19" ht="16.5">
+    <row r="59" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A59" s="7"/>
       <c r="B59" s="4"/>
       <c r="C59" s="7"/>
@@ -2821,7 +2774,7 @@
       <c r="R59" s="7"/>
       <c r="S59" s="4"/>
     </row>
-    <row r="60" spans="1:19" ht="16.5">
+    <row r="60" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A60" s="7"/>
       <c r="B60" s="4"/>
       <c r="C60" s="7"/>
@@ -2842,7 +2795,7 @@
       <c r="R60" s="7"/>
       <c r="S60" s="4"/>
     </row>
-    <row r="61" spans="1:19" ht="16.5">
+    <row r="61" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A61" s="7"/>
       <c r="B61" s="4"/>
       <c r="C61" s="7"/>
@@ -2863,7 +2816,7 @@
       <c r="R61" s="7"/>
       <c r="S61" s="4"/>
     </row>
-    <row r="62" spans="1:19" ht="16.5">
+    <row r="62" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A62" s="7"/>
       <c r="B62" s="4"/>
       <c r="C62" s="7"/>
@@ -2884,7 +2837,7 @@
       <c r="R62" s="7"/>
       <c r="S62" s="4"/>
     </row>
-    <row r="63" spans="1:19" ht="16.5">
+    <row r="63" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A63" s="7"/>
       <c r="B63" s="4"/>
       <c r="C63" s="7"/>
@@ -2905,7 +2858,7 @@
       <c r="R63" s="7"/>
       <c r="S63" s="4"/>
     </row>
-    <row r="64" spans="1:19" ht="16.5">
+    <row r="64" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A64" s="7"/>
       <c r="B64" s="4"/>
       <c r="C64" s="7"/>
@@ -2926,7 +2879,7 @@
       <c r="R64" s="7"/>
       <c r="S64" s="4"/>
     </row>
-    <row r="65" spans="1:19" ht="16.5">
+    <row r="65" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A65" s="7"/>
       <c r="B65" s="4"/>
       <c r="C65" s="7"/>
@@ -2947,7 +2900,7 @@
       <c r="R65" s="7"/>
       <c r="S65" s="4"/>
     </row>
-    <row r="66" spans="1:19" ht="16.5">
+    <row r="66" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A66" s="7"/>
       <c r="B66" s="4"/>
       <c r="C66" s="7"/>
@@ -2968,7 +2921,7 @@
       <c r="R66" s="7"/>
       <c r="S66" s="4"/>
     </row>
-    <row r="67" spans="1:19" ht="16.5">
+    <row r="67" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A67" s="7"/>
       <c r="B67" s="4"/>
       <c r="C67" s="7"/>
@@ -2989,7 +2942,7 @@
       <c r="R67" s="7"/>
       <c r="S67" s="4"/>
     </row>
-    <row r="68" spans="1:19" ht="16.5">
+    <row r="68" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A68" s="7"/>
       <c r="B68" s="4"/>
       <c r="C68" s="7"/>
@@ -3010,7 +2963,7 @@
       <c r="R68" s="7"/>
       <c r="S68" s="4"/>
     </row>
-    <row r="69" spans="1:19" ht="16.5">
+    <row r="69" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A69" s="7"/>
       <c r="B69" s="4"/>
       <c r="C69" s="7"/>
@@ -3031,7 +2984,7 @@
       <c r="R69" s="7"/>
       <c r="S69" s="4"/>
     </row>
-    <row r="70" spans="1:19" ht="16.5">
+    <row r="70" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A70" s="7"/>
       <c r="B70" s="4"/>
       <c r="C70" s="7"/>
@@ -3052,7 +3005,7 @@
       <c r="R70" s="7"/>
       <c r="S70" s="4"/>
     </row>
-    <row r="71" spans="1:19" ht="16.5">
+    <row r="71" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A71" s="7"/>
       <c r="B71" s="4"/>
       <c r="C71" s="7"/>
@@ -3073,7 +3026,7 @@
       <c r="R71" s="7"/>
       <c r="S71" s="4"/>
     </row>
-    <row r="72" spans="1:19" ht="16.5">
+    <row r="72" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A72" s="7"/>
       <c r="B72" s="4"/>
       <c r="C72" s="7"/>
@@ -3094,7 +3047,7 @@
       <c r="R72" s="7"/>
       <c r="S72" s="4"/>
     </row>
-    <row r="73" spans="1:19" ht="16.5">
+    <row r="73" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A73" s="7"/>
       <c r="B73" s="4"/>
       <c r="C73" s="7"/>
@@ -3115,7 +3068,7 @@
       <c r="R73" s="7"/>
       <c r="S73" s="4"/>
     </row>
-    <row r="74" spans="1:19" ht="16.5">
+    <row r="74" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A74" s="7"/>
       <c r="B74" s="4"/>
       <c r="C74" s="7"/>
@@ -3136,7 +3089,7 @@
       <c r="R74" s="7"/>
       <c r="S74" s="4"/>
     </row>
-    <row r="75" spans="1:19" ht="16.5">
+    <row r="75" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A75" s="7"/>
       <c r="B75" s="4"/>
       <c r="C75" s="7"/>
@@ -3157,7 +3110,7 @@
       <c r="R75" s="7"/>
       <c r="S75" s="4"/>
     </row>
-    <row r="76" spans="1:19" ht="16.5">
+    <row r="76" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A76" s="7"/>
       <c r="B76" s="4"/>
       <c r="C76" s="7"/>
@@ -3178,7 +3131,7 @@
       <c r="R76" s="7"/>
       <c r="S76" s="4"/>
     </row>
-    <row r="77" spans="1:19" ht="16.5">
+    <row r="77" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A77" s="7"/>
       <c r="B77" s="4"/>
       <c r="C77" s="7"/>
@@ -3199,7 +3152,7 @@
       <c r="R77" s="7"/>
       <c r="S77" s="4"/>
     </row>
-    <row r="78" spans="1:19" ht="16.5">
+    <row r="78" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A78" s="7"/>
       <c r="B78" s="4"/>
       <c r="C78" s="7"/>
@@ -3220,7 +3173,7 @@
       <c r="R78" s="7"/>
       <c r="S78" s="4"/>
     </row>
-    <row r="79" spans="1:19" ht="16.5">
+    <row r="79" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A79" s="7"/>
       <c r="B79" s="4"/>
       <c r="C79" s="7"/>
@@ -3241,7 +3194,7 @@
       <c r="R79" s="7"/>
       <c r="S79" s="4"/>
     </row>
-    <row r="80" spans="1:19" ht="16.5">
+    <row r="80" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A80" s="7"/>
       <c r="B80" s="4"/>
       <c r="C80" s="7"/>
@@ -3262,7 +3215,7 @@
       <c r="R80" s="7"/>
       <c r="S80" s="4"/>
     </row>
-    <row r="81" spans="1:19" ht="16.5">
+    <row r="81" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A81" s="7"/>
       <c r="B81" s="4"/>
       <c r="C81" s="7"/>
@@ -3283,7 +3236,7 @@
       <c r="R81" s="7"/>
       <c r="S81" s="4"/>
     </row>
-    <row r="82" spans="1:19" ht="16.5">
+    <row r="82" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A82" s="7"/>
       <c r="B82" s="4"/>
       <c r="C82" s="7"/>
@@ -3304,7 +3257,7 @@
       <c r="R82" s="7"/>
       <c r="S82" s="4"/>
     </row>
-    <row r="83" spans="1:19" ht="16.5">
+    <row r="83" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A83" s="7"/>
       <c r="B83" s="4"/>
       <c r="C83" s="7"/>
@@ -3325,7 +3278,7 @@
       <c r="R83" s="7"/>
       <c r="S83" s="4"/>
     </row>
-    <row r="84" spans="1:19" ht="16.5">
+    <row r="84" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A84" s="7"/>
       <c r="B84" s="4"/>
       <c r="C84" s="7"/>
@@ -3346,7 +3299,7 @@
       <c r="R84" s="7"/>
       <c r="S84" s="4"/>
     </row>
-    <row r="85" spans="1:19" ht="16.5">
+    <row r="85" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A85" s="7"/>
       <c r="B85" s="4"/>
       <c r="C85" s="7"/>
@@ -3367,7 +3320,7 @@
       <c r="R85" s="7"/>
       <c r="S85" s="4"/>
     </row>
-    <row r="86" spans="1:19" ht="16.5">
+    <row r="86" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A86" s="7"/>
       <c r="B86" s="4"/>
       <c r="C86" s="7"/>
@@ -3388,7 +3341,7 @@
       <c r="R86" s="7"/>
       <c r="S86" s="4"/>
     </row>
-    <row r="87" spans="1:19" ht="16.5">
+    <row r="87" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A87" s="7"/>
       <c r="B87" s="4"/>
       <c r="C87" s="7"/>
@@ -3409,7 +3362,7 @@
       <c r="R87" s="7"/>
       <c r="S87" s="4"/>
     </row>
-    <row r="88" spans="1:19" ht="16.5">
+    <row r="88" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A88" s="7"/>
       <c r="B88" s="4"/>
       <c r="C88" s="7"/>
@@ -3430,7 +3383,7 @@
       <c r="R88" s="7"/>
       <c r="S88" s="4"/>
     </row>
-    <row r="89" spans="1:19" ht="16.5">
+    <row r="89" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A89" s="7"/>
       <c r="B89" s="4"/>
       <c r="C89" s="7"/>
@@ -3451,7 +3404,7 @@
       <c r="R89" s="7"/>
       <c r="S89" s="4"/>
     </row>
-    <row r="90" spans="1:19" ht="16.5">
+    <row r="90" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A90" s="7"/>
       <c r="B90" s="4"/>
       <c r="C90" s="7"/>
@@ -3472,7 +3425,7 @@
       <c r="R90" s="7"/>
       <c r="S90" s="4"/>
     </row>
-    <row r="91" spans="1:19" ht="16.5">
+    <row r="91" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A91" s="7"/>
       <c r="B91" s="4"/>
       <c r="C91" s="7"/>
@@ -3493,7 +3446,7 @@
       <c r="R91" s="7"/>
       <c r="S91" s="4"/>
     </row>
-    <row r="92" spans="1:19" ht="16.5">
+    <row r="92" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A92" s="7"/>
       <c r="B92" s="4"/>
       <c r="C92" s="7"/>
@@ -3514,7 +3467,7 @@
       <c r="R92" s="7"/>
       <c r="S92" s="4"/>
     </row>
-    <row r="93" spans="1:19" ht="16.5">
+    <row r="93" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A93" s="7"/>
       <c r="B93" s="4"/>
       <c r="C93" s="7"/>
@@ -3535,7 +3488,7 @@
       <c r="R93" s="7"/>
       <c r="S93" s="4"/>
     </row>
-    <row r="94" spans="1:19" ht="16.5">
+    <row r="94" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A94" s="7"/>
       <c r="B94" s="4"/>
       <c r="C94" s="7"/>
@@ -3556,7 +3509,7 @@
       <c r="R94" s="7"/>
       <c r="S94" s="4"/>
     </row>
-    <row r="95" spans="1:19" ht="16.5">
+    <row r="95" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A95" s="7"/>
       <c r="B95" s="4"/>
       <c r="C95" s="7"/>
@@ -3577,7 +3530,7 @@
       <c r="R95" s="7"/>
       <c r="S95" s="4"/>
     </row>
-    <row r="96" spans="1:19" ht="16.5">
+    <row r="96" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A96" s="7"/>
       <c r="B96" s="4"/>
       <c r="C96" s="7"/>
@@ -3598,7 +3551,7 @@
       <c r="R96" s="7"/>
       <c r="S96" s="4"/>
     </row>
-    <row r="97" spans="1:19" ht="16.5">
+    <row r="97" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A97" s="7"/>
       <c r="B97" s="4"/>
       <c r="C97" s="7"/>
@@ -3619,7 +3572,7 @@
       <c r="R97" s="7"/>
       <c r="S97" s="4"/>
     </row>
-    <row r="98" spans="1:19" ht="16.5">
+    <row r="98" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A98" s="7"/>
       <c r="B98" s="4"/>
       <c r="C98" s="7"/>
@@ -3640,7 +3593,7 @@
       <c r="R98" s="7"/>
       <c r="S98" s="4"/>
     </row>
-    <row r="99" spans="1:19" ht="16.5">
+    <row r="99" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A99" s="7"/>
       <c r="B99" s="4"/>
       <c r="C99" s="7"/>
@@ -3661,7 +3614,7 @@
       <c r="R99" s="7"/>
       <c r="S99" s="4"/>
     </row>
-    <row r="100" spans="1:19" ht="16.5">
+    <row r="100" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A100" s="7"/>
       <c r="B100" s="4"/>
       <c r="C100" s="7"/>
@@ -3682,7 +3635,7 @@
       <c r="R100" s="7"/>
       <c r="S100" s="4"/>
     </row>
-    <row r="101" spans="1:19" ht="16.5">
+    <row r="101" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A101" s="7"/>
       <c r="B101" s="4"/>
       <c r="C101" s="7"/>
@@ -3703,7 +3656,7 @@
       <c r="R101" s="7"/>
       <c r="S101" s="4"/>
     </row>
-    <row r="102" spans="1:19" ht="16.5">
+    <row r="102" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A102" s="7"/>
       <c r="B102" s="4"/>
       <c r="C102" s="7"/>
@@ -3724,7 +3677,7 @@
       <c r="R102" s="7"/>
       <c r="S102" s="4"/>
     </row>
-    <row r="103" spans="1:19" ht="16.5">
+    <row r="103" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A103" s="7"/>
       <c r="B103" s="4"/>
       <c r="C103" s="7"/>
@@ -3745,7 +3698,7 @@
       <c r="R103" s="7"/>
       <c r="S103" s="4"/>
     </row>
-    <row r="104" spans="1:19" ht="16.5">
+    <row r="104" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A104" s="7"/>
       <c r="B104" s="4"/>
       <c r="C104" s="7"/>
@@ -3766,7 +3719,7 @@
       <c r="R104" s="7"/>
       <c r="S104" s="4"/>
     </row>
-    <row r="105" spans="1:19" ht="16.5">
+    <row r="105" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A105" s="7"/>
       <c r="B105" s="4"/>
       <c r="C105" s="7"/>
@@ -3787,7 +3740,7 @@
       <c r="R105" s="7"/>
       <c r="S105" s="4"/>
     </row>
-    <row r="106" spans="1:19" ht="16.5">
+    <row r="106" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A106" s="7"/>
       <c r="B106" s="4"/>
       <c r="C106" s="7"/>
@@ -3808,7 +3761,7 @@
       <c r="R106" s="7"/>
       <c r="S106" s="4"/>
     </row>
-    <row r="107" spans="1:19" ht="16.5">
+    <row r="107" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A107" s="7"/>
       <c r="B107" s="4"/>
       <c r="C107" s="7"/>
@@ -3829,7 +3782,7 @@
       <c r="R107" s="7"/>
       <c r="S107" s="4"/>
     </row>
-    <row r="108" spans="1:19" ht="16.5">
+    <row r="108" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A108" s="7"/>
       <c r="B108" s="4"/>
       <c r="C108" s="7"/>
@@ -3850,7 +3803,7 @@
       <c r="R108" s="7"/>
       <c r="S108" s="4"/>
     </row>
-    <row r="109" spans="1:19" ht="16.5">
+    <row r="109" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A109" s="7"/>
       <c r="B109" s="4"/>
       <c r="C109" s="7"/>
@@ -3871,7 +3824,7 @@
       <c r="R109" s="7"/>
       <c r="S109" s="4"/>
     </row>
-    <row r="110" spans="1:19" ht="16.5">
+    <row r="110" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A110" s="7"/>
       <c r="B110" s="4"/>
       <c r="C110" s="7"/>
@@ -3892,7 +3845,7 @@
       <c r="R110" s="7"/>
       <c r="S110" s="4"/>
     </row>
-    <row r="111" spans="1:19" ht="16.5">
+    <row r="111" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A111" s="7"/>
       <c r="B111" s="4"/>
       <c r="C111" s="7"/>
@@ -3913,7 +3866,7 @@
       <c r="R111" s="7"/>
       <c r="S111" s="4"/>
     </row>
-    <row r="112" spans="1:19" ht="16.5">
+    <row r="112" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A112" s="7"/>
       <c r="B112" s="4"/>
       <c r="C112" s="7"/>
@@ -3934,7 +3887,7 @@
       <c r="R112" s="7"/>
       <c r="S112" s="4"/>
     </row>
-    <row r="113" spans="1:19" ht="16.5">
+    <row r="113" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A113" s="7"/>
       <c r="B113" s="4"/>
       <c r="C113" s="7"/>
@@ -3955,7 +3908,7 @@
       <c r="R113" s="7"/>
       <c r="S113" s="4"/>
     </row>
-    <row r="114" spans="1:19" ht="16.5">
+    <row r="114" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A114" s="7"/>
       <c r="B114" s="4"/>
       <c r="C114" s="7"/>
@@ -3976,7 +3929,7 @@
       <c r="R114" s="7"/>
       <c r="S114" s="4"/>
     </row>
-    <row r="115" spans="1:19" ht="16.5">
+    <row r="115" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A115" s="7"/>
       <c r="B115" s="4"/>
       <c r="C115" s="7"/>
@@ -3997,7 +3950,7 @@
       <c r="R115" s="7"/>
       <c r="S115" s="4"/>
     </row>
-    <row r="116" spans="1:19" ht="16.5">
+    <row r="116" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A116" s="7"/>
       <c r="B116" s="4"/>
       <c r="C116" s="7"/>
@@ -4015,7 +3968,7 @@
       <c r="O116" s="4"/>
       <c r="S116" s="4"/>
     </row>
-    <row r="117" spans="1:19" ht="16.5">
+    <row r="117" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A117" s="7"/>
       <c r="B117" s="4"/>
       <c r="C117" s="7"/>
@@ -4033,7 +3986,7 @@
       <c r="O117" s="4"/>
       <c r="S117" s="4"/>
     </row>
-    <row r="118" spans="1:19" ht="16.5">
+    <row r="118" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A118" s="7"/>
       <c r="B118" s="4"/>
       <c r="C118" s="7"/>
@@ -4051,7 +4004,7 @@
       <c r="O118" s="4"/>
       <c r="S118" s="4"/>
     </row>
-    <row r="119" spans="1:19" ht="16.5">
+    <row r="119" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A119" s="7"/>
       <c r="B119" s="4"/>
       <c r="C119" s="7"/>
@@ -4069,7 +4022,7 @@
       <c r="O119" s="4"/>
       <c r="S119" s="4"/>
     </row>
-    <row r="120" spans="1:19" ht="16.5">
+    <row r="120" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A120" s="7"/>
       <c r="B120" s="4"/>
       <c r="C120" s="7"/>
@@ -4087,7 +4040,7 @@
       <c r="O120" s="4"/>
       <c r="S120" s="4"/>
     </row>
-    <row r="121" spans="1:19" ht="16.5">
+    <row r="121" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A121" s="7"/>
       <c r="B121" s="4"/>
       <c r="C121" s="7"/>
@@ -4105,7 +4058,7 @@
       <c r="O121" s="4"/>
       <c r="S121" s="4"/>
     </row>
-    <row r="122" spans="1:19" ht="16.5">
+    <row r="122" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A122" s="7"/>
       <c r="B122" s="4"/>
       <c r="C122" s="7"/>
@@ -4123,7 +4076,7 @@
       <c r="O122" s="4"/>
       <c r="S122" s="4"/>
     </row>
-    <row r="123" spans="1:19" ht="16.5">
+    <row r="123" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A123" s="7"/>
       <c r="B123" s="4"/>
       <c r="C123" s="7"/>
@@ -4141,7 +4094,7 @@
       <c r="O123" s="4"/>
       <c r="S123" s="4"/>
     </row>
-    <row r="124" spans="1:19" ht="16.5">
+    <row r="124" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A124" s="7"/>
       <c r="B124" s="4"/>
       <c r="C124" s="7"/>
@@ -4159,7 +4112,7 @@
       <c r="O124" s="4"/>
       <c r="S124" s="4"/>
     </row>
-    <row r="125" spans="1:19" ht="16.5">
+    <row r="125" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A125" s="7"/>
       <c r="B125" s="4"/>
       <c r="C125" s="7"/>
@@ -4177,7 +4130,7 @@
       <c r="O125" s="4"/>
       <c r="S125" s="4"/>
     </row>
-    <row r="126" spans="1:19" ht="16.5">
+    <row r="126" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A126" s="7"/>
       <c r="B126" s="4"/>
       <c r="C126" s="7"/>
@@ -4195,7 +4148,7 @@
       <c r="O126" s="4"/>
       <c r="S126" s="4"/>
     </row>
-    <row r="127" spans="1:19" ht="16.5">
+    <row r="127" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A127" s="7"/>
       <c r="B127" s="4"/>
       <c r="C127" s="7"/>
@@ -4213,7 +4166,7 @@
       <c r="O127" s="4"/>
       <c r="S127" s="4"/>
     </row>
-    <row r="128" spans="1:19" ht="16.5">
+    <row r="128" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A128" s="7"/>
       <c r="B128" s="4"/>
       <c r="C128" s="7"/>
@@ -4231,7 +4184,7 @@
       <c r="O128" s="4"/>
       <c r="S128" s="4"/>
     </row>
-    <row r="129" spans="1:19" ht="16.5">
+    <row r="129" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A129" s="7"/>
       <c r="B129" s="4"/>
       <c r="C129" s="7"/>
@@ -4249,7 +4202,7 @@
       <c r="O129" s="4"/>
       <c r="S129" s="4"/>
     </row>
-    <row r="130" spans="1:19" ht="16.5">
+    <row r="130" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A130" s="7"/>
       <c r="B130" s="4"/>
       <c r="C130" s="7"/>
@@ -4267,7 +4220,7 @@
       <c r="O130" s="4"/>
       <c r="S130" s="4"/>
     </row>
-    <row r="131" spans="1:19" ht="16.5">
+    <row r="131" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A131" s="7"/>
       <c r="B131" s="4"/>
       <c r="C131" s="7"/>
@@ -4285,7 +4238,7 @@
       <c r="O131" s="4"/>
       <c r="S131" s="4"/>
     </row>
-    <row r="132" spans="1:19" ht="16.5">
+    <row r="132" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A132" s="7"/>
       <c r="B132" s="4"/>
       <c r="C132" s="7"/>
@@ -4303,7 +4256,7 @@
       <c r="O132" s="4"/>
       <c r="S132" s="4"/>
     </row>
-    <row r="133" spans="1:19" ht="16.5">
+    <row r="133" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A133" s="7"/>
       <c r="B133" s="4"/>
       <c r="C133" s="7"/>
@@ -4321,7 +4274,7 @@
       <c r="O133" s="4"/>
       <c r="S133" s="4"/>
     </row>
-    <row r="134" spans="1:19" ht="16.5">
+    <row r="134" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A134" s="7"/>
       <c r="B134" s="4"/>
       <c r="C134" s="7"/>
@@ -4339,7 +4292,7 @@
       <c r="O134" s="4"/>
       <c r="S134" s="4"/>
     </row>
-    <row r="135" spans="1:19" ht="16.5">
+    <row r="135" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A135" s="7"/>
       <c r="B135" s="4"/>
       <c r="C135" s="7"/>
@@ -4357,7 +4310,7 @@
       <c r="O135" s="4"/>
       <c r="S135" s="4"/>
     </row>
-    <row r="136" spans="1:19" ht="16.5">
+    <row r="136" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A136" s="7"/>
       <c r="B136" s="4"/>
       <c r="C136" s="7"/>
@@ -4375,7 +4328,7 @@
       <c r="O136" s="4"/>
       <c r="S136" s="4"/>
     </row>
-    <row r="137" spans="1:19" ht="16.5">
+    <row r="137" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A137" s="7"/>
       <c r="B137" s="4"/>
       <c r="C137" s="7"/>
@@ -4393,7 +4346,7 @@
       <c r="O137" s="4"/>
       <c r="S137" s="4"/>
     </row>
-    <row r="138" spans="1:19" ht="16.5">
+    <row r="138" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A138" s="7"/>
       <c r="B138" s="4"/>
       <c r="C138" s="7"/>
@@ -4411,7 +4364,7 @@
       <c r="O138" s="4"/>
       <c r="S138" s="4"/>
     </row>
-    <row r="139" spans="1:19" ht="16.5">
+    <row r="139" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A139" s="7"/>
       <c r="B139" s="4"/>
       <c r="C139" s="7"/>
@@ -4429,7 +4382,7 @@
       <c r="O139" s="4"/>
       <c r="S139" s="4"/>
     </row>
-    <row r="140" spans="1:19" ht="16.5">
+    <row r="140" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A140" s="7"/>
       <c r="B140" s="4"/>
       <c r="C140" s="7"/>
@@ -4447,7 +4400,7 @@
       <c r="O140" s="4"/>
       <c r="S140" s="4"/>
     </row>
-    <row r="141" spans="1:19" ht="16.5">
+    <row r="141" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A141" s="7"/>
       <c r="B141" s="4"/>
       <c r="C141" s="7"/>
@@ -4465,7 +4418,7 @@
       <c r="O141" s="4"/>
       <c r="S141" s="4"/>
     </row>
-    <row r="142" spans="1:19" ht="16.5">
+    <row r="142" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A142" s="7"/>
       <c r="B142" s="4"/>
       <c r="C142" s="7"/>
@@ -4483,7 +4436,7 @@
       <c r="O142" s="4"/>
       <c r="S142" s="4"/>
     </row>
-    <row r="143" spans="1:19" ht="16.5">
+    <row r="143" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A143" s="7"/>
       <c r="B143" s="4"/>
       <c r="C143" s="7"/>
@@ -4501,7 +4454,7 @@
       <c r="O143" s="4"/>
       <c r="S143" s="4"/>
     </row>
-    <row r="144" spans="1:19" ht="16.5">
+    <row r="144" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A144" s="7"/>
       <c r="B144" s="4"/>
       <c r="C144" s="7"/>
@@ -4519,7 +4472,7 @@
       <c r="O144" s="4"/>
       <c r="S144" s="4"/>
     </row>
-    <row r="145" spans="1:19" ht="16.5">
+    <row r="145" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A145" s="7"/>
       <c r="B145" s="4"/>
       <c r="C145" s="7"/>
@@ -4537,7 +4490,7 @@
       <c r="O145" s="4"/>
       <c r="S145" s="4"/>
     </row>
-    <row r="146" spans="1:19" ht="16.5">
+    <row r="146" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A146" s="7"/>
       <c r="B146" s="4"/>
       <c r="C146" s="7"/>
@@ -4555,7 +4508,7 @@
       <c r="O146" s="4"/>
       <c r="S146" s="4"/>
     </row>
-    <row r="147" spans="1:19" ht="16.5">
+    <row r="147" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A147" s="7"/>
       <c r="B147" s="4"/>
       <c r="C147" s="7"/>
@@ -4573,7 +4526,7 @@
       <c r="O147" s="4"/>
       <c r="S147" s="4"/>
     </row>
-    <row r="148" spans="1:19">
+    <row r="148" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A148" s="7"/>
       <c r="B148" s="4"/>
       <c r="C148" s="7"/>
@@ -4591,7 +4544,7 @@
       <c r="O148" s="4"/>
       <c r="S148" s="4"/>
     </row>
-    <row r="149" spans="1:19">
+    <row r="149" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A149" s="7"/>
       <c r="B149" s="4"/>
       <c r="C149" s="7"/>
@@ -4609,7 +4562,7 @@
       <c r="O149" s="4"/>
       <c r="S149" s="4"/>
     </row>
-    <row r="150" spans="1:19">
+    <row r="150" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A150" s="7"/>
       <c r="B150" s="4"/>
       <c r="C150" s="7"/>
@@ -4635,21 +4588,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="4" max="4" width="30.5" customWidth="1"/>
     <col min="7" max="7" width="22.75" customWidth="1"/>
     <col min="8" max="8" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="41" t="s">
         <v>27</v>
       </c>
@@ -4662,7 +4615,7 @@
       <c r="H1" s="41"/>
       <c r="I1" s="42"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="43"/>
       <c r="B2" s="43"/>
       <c r="C2" s="43"/>
@@ -4673,7 +4626,7 @@
       <c r="H2" s="43"/>
       <c r="I2" s="44"/>
     </row>
-    <row r="3" spans="1:9" s="26" customFormat="1" ht="16.5">
+    <row r="3" spans="1:9" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="24" t="s">
         <v>28</v>
       </c>
@@ -4702,7 +4655,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="19"/>
       <c r="B4" s="27" t="s">
         <v>36</v>
@@ -4717,7 +4670,7 @@
       <c r="H4" s="27"/>
       <c r="I4" s="27"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="19"/>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
@@ -4728,7 +4681,7 @@
       <c r="H5" s="27"/>
       <c r="I5" s="27"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="19"/>
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
@@ -4739,7 +4692,7 @@
       <c r="H6" s="27"/>
       <c r="I6" s="27"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="19"/>
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
@@ -4750,7 +4703,7 @@
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="19"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
@@ -4761,7 +4714,7 @@
       <c r="H8" s="19"/>
       <c r="I8" s="19"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="19"/>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
@@ -4772,7 +4725,7 @@
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="19"/>
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
@@ -4783,7 +4736,7 @@
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="19"/>
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
@@ -4794,7 +4747,7 @@
       <c r="H11" s="19"/>
       <c r="I11" s="19"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="19"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
@@ -4805,7 +4758,7 @@
       <c r="H12" s="19"/>
       <c r="I12" s="19"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
@@ -4816,7 +4769,7 @@
       <c r="H13" s="19"/>
       <c r="I13" s="19"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="19"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
@@ -4845,14 +4798,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="43.25" customWidth="1"/>
@@ -4863,7 +4816,7 @@
     <col min="8" max="8" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="18" t="s">
         <v>18</v>
       </c>
@@ -4889,7 +4842,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1">
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="20"/>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
@@ -4899,7 +4852,7 @@
       <c r="G2" s="20"/>
       <c r="H2" s="20"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="19"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -4909,7 +4862,7 @@
       <c r="G3" s="19"/>
       <c r="H3" s="19"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="19"/>
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
@@ -4919,7 +4872,7 @@
       <c r="G4" s="19"/>
       <c r="H4" s="19"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="19"/>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
@@ -4929,7 +4882,7 @@
       <c r="G5" s="19"/>
       <c r="H5" s="19"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="19"/>
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
@@ -4939,7 +4892,7 @@
       <c r="G6" s="19"/>
       <c r="H6" s="19"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="19"/>
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
@@ -4949,7 +4902,7 @@
       <c r="G7" s="19"/>
       <c r="H7" s="19"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="19"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
@@ -4959,7 +4912,7 @@
       <c r="G8" s="19"/>
       <c r="H8" s="19"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="19"/>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
@@ -4969,7 +4922,7 @@
       <c r="G9" s="19"/>
       <c r="H9" s="19"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="19"/>
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
@@ -4979,7 +4932,7 @@
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="19"/>
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
@@ -4989,7 +4942,7 @@
       <c r="G11" s="19"/>
       <c r="H11" s="19"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="19"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
@@ -4999,7 +4952,7 @@
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
@@ -5009,7 +4962,7 @@
       <c r="G13" s="19"/>
       <c r="H13" s="19"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="19"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
@@ -5019,7 +4972,7 @@
       <c r="G14" s="19"/>
       <c r="H14" s="19"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="19"/>
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
@@ -5029,7 +4982,7 @@
       <c r="G15" s="19"/>
       <c r="H15" s="19"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="19"/>
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
@@ -5039,7 +4992,7 @@
       <c r="G16" s="19"/>
       <c r="H16" s="19"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="19"/>
       <c r="B17" s="19"/>
       <c r="C17" s="19"/>
@@ -5049,7 +5002,7 @@
       <c r="G17" s="19"/>
       <c r="H17" s="19"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="19"/>
       <c r="B18" s="19"/>
       <c r="C18" s="19"/>
@@ -5059,7 +5012,7 @@
       <c r="G18" s="19"/>
       <c r="H18" s="19"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="19"/>
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
@@ -5081,14 +5034,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.875" customWidth="1"/>
     <col min="2" max="2" width="10.125" style="33" customWidth="1"/>
@@ -5924,7 +5877,7 @@
     <col min="16141" max="16141" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="41" t="s">
         <v>38</v>
       </c>
@@ -5941,7 +5894,7 @@
       <c r="L1" s="41"/>
       <c r="M1" s="42"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="43"/>
       <c r="B2" s="43"/>
       <c r="C2" s="43"/>
@@ -5956,7 +5909,7 @@
       <c r="L2" s="43"/>
       <c r="M2" s="44"/>
     </row>
-    <row r="3" spans="1:13" s="26" customFormat="1" ht="16.5">
+    <row r="3" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="24" t="s">
         <v>28</v>
       </c>
@@ -5997,7 +5950,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="26" customFormat="1" ht="68.25" customHeight="1">
+    <row r="4" spans="1:13" s="26" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="29">
         <v>1</v>
       </c>
@@ -6034,9 +5987,11 @@
       <c r="L4" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="M4" s="31"/>
-    </row>
-    <row r="5" spans="1:13" s="26" customFormat="1" ht="16.5">
+      <c r="M4" s="31" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="29"/>
       <c r="B5" s="29"/>
       <c r="C5" s="29"/>
@@ -6051,7 +6006,7 @@
       <c r="L5" s="29"/>
       <c r="M5" s="31"/>
     </row>
-    <row r="6" spans="1:13" s="26" customFormat="1" ht="16.5">
+    <row r="6" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="29"/>
       <c r="B6" s="29"/>
       <c r="C6" s="29"/>
@@ -6066,7 +6021,7 @@
       <c r="L6" s="29"/>
       <c r="M6" s="31"/>
     </row>
-    <row r="7" spans="1:13" s="26" customFormat="1" ht="16.5">
+    <row r="7" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="29"/>
       <c r="B7" s="29"/>
       <c r="C7" s="29"/>
@@ -6081,7 +6036,7 @@
       <c r="L7" s="29"/>
       <c r="M7" s="29"/>
     </row>
-    <row r="8" spans="1:13" s="26" customFormat="1" ht="16.5">
+    <row r="8" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="29"/>
       <c r="B8" s="29"/>
       <c r="C8" s="29"/>
@@ -6096,7 +6051,7 @@
       <c r="L8" s="29"/>
       <c r="M8" s="29"/>
     </row>
-    <row r="9" spans="1:13" s="26" customFormat="1" ht="16.5">
+    <row r="9" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="29"/>
       <c r="B9" s="29"/>
       <c r="C9" s="29"/>
@@ -6111,7 +6066,7 @@
       <c r="L9" s="29"/>
       <c r="M9" s="29"/>
     </row>
-    <row r="10" spans="1:13" s="26" customFormat="1" ht="16.5">
+    <row r="10" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="29"/>
       <c r="B10" s="29"/>
       <c r="C10" s="29"/>
@@ -6126,7 +6081,7 @@
       <c r="L10" s="29"/>
       <c r="M10" s="29"/>
     </row>
-    <row r="11" spans="1:13" s="26" customFormat="1" ht="16.5">
+    <row r="11" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="29"/>
       <c r="B11" s="29"/>
       <c r="C11" s="29"/>
@@ -6141,7 +6096,7 @@
       <c r="L11" s="29"/>
       <c r="M11" s="29"/>
     </row>
-    <row r="12" spans="1:13" s="26" customFormat="1" ht="16.5">
+    <row r="12" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="29"/>
       <c r="B12" s="29"/>
       <c r="C12" s="29"/>
@@ -6156,7 +6111,7 @@
       <c r="L12" s="29"/>
       <c r="M12" s="29"/>
     </row>
-    <row r="13" spans="1:13" s="26" customFormat="1" ht="16.5">
+    <row r="13" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="29"/>
       <c r="B13" s="29"/>
       <c r="C13" s="29"/>
@@ -6193,14 +6148,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.875" customWidth="1"/>
     <col min="2" max="2" width="10.125" style="33" customWidth="1"/>
@@ -7036,7 +6991,7 @@
     <col min="16141" max="16141" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="41" t="s">
         <v>38</v>
       </c>
@@ -7053,7 +7008,7 @@
       <c r="L1" s="41"/>
       <c r="M1" s="42"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="43"/>
       <c r="B2" s="43"/>
       <c r="C2" s="43"/>
@@ -7068,7 +7023,7 @@
       <c r="L2" s="43"/>
       <c r="M2" s="44"/>
     </row>
-    <row r="3" spans="1:13" s="26" customFormat="1" ht="16.5">
+    <row r="3" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="24" t="s">
         <v>28</v>
       </c>
@@ -7109,7 +7064,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="26" customFormat="1" ht="68.25" customHeight="1">
+    <row r="4" spans="1:13" s="26" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="29">
         <v>1</v>
       </c>
@@ -7120,7 +7075,7 @@
         <v>81</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="E4" s="29" t="s">
         <v>83</v>
@@ -7146,9 +7101,11 @@
       <c r="L4" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="M4" s="31"/>
-    </row>
-    <row r="5" spans="1:13" s="26" customFormat="1" ht="16.5">
+      <c r="M4" s="31" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="29"/>
       <c r="B5" s="29"/>
       <c r="C5" s="29"/>
@@ -7163,7 +7120,7 @@
       <c r="L5" s="29"/>
       <c r="M5" s="31"/>
     </row>
-    <row r="6" spans="1:13" s="26" customFormat="1" ht="16.5">
+    <row r="6" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="29"/>
       <c r="B6" s="29"/>
       <c r="C6" s="29"/>
@@ -7178,7 +7135,7 @@
       <c r="L6" s="29"/>
       <c r="M6" s="31"/>
     </row>
-    <row r="7" spans="1:13" s="26" customFormat="1" ht="16.5">
+    <row r="7" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="29"/>
       <c r="B7" s="29"/>
       <c r="C7" s="29"/>
@@ -7193,7 +7150,7 @@
       <c r="L7" s="29"/>
       <c r="M7" s="29"/>
     </row>
-    <row r="8" spans="1:13" s="26" customFormat="1" ht="16.5">
+    <row r="8" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="29"/>
       <c r="B8" s="29"/>
       <c r="C8" s="29"/>
@@ -7208,7 +7165,7 @@
       <c r="L8" s="29"/>
       <c r="M8" s="29"/>
     </row>
-    <row r="9" spans="1:13" s="26" customFormat="1" ht="16.5">
+    <row r="9" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="29"/>
       <c r="B9" s="29"/>
       <c r="C9" s="29"/>
@@ -7223,7 +7180,7 @@
       <c r="L9" s="29"/>
       <c r="M9" s="29"/>
     </row>
-    <row r="10" spans="1:13" s="26" customFormat="1" ht="16.5">
+    <row r="10" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="29"/>
       <c r="B10" s="29"/>
       <c r="C10" s="29"/>
@@ -7238,7 +7195,7 @@
       <c r="L10" s="29"/>
       <c r="M10" s="29"/>
     </row>
-    <row r="11" spans="1:13" s="26" customFormat="1" ht="16.5">
+    <row r="11" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="29"/>
       <c r="B11" s="29"/>
       <c r="C11" s="29"/>
@@ -7253,7 +7210,7 @@
       <c r="L11" s="29"/>
       <c r="M11" s="29"/>
     </row>
-    <row r="12" spans="1:13" s="26" customFormat="1" ht="16.5">
+    <row r="12" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="29"/>
       <c r="B12" s="29"/>
       <c r="C12" s="29"/>
@@ -7268,7 +7225,7 @@
       <c r="L12" s="29"/>
       <c r="M12" s="29"/>
     </row>
-    <row r="13" spans="1:13" s="26" customFormat="1" ht="16.5">
+    <row r="13" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="29"/>
       <c r="B13" s="29"/>
       <c r="C13" s="29"/>
@@ -7304,14 +7261,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.875" customWidth="1"/>
     <col min="2" max="2" width="10.125" style="33" customWidth="1"/>
@@ -8147,7 +8104,7 @@
     <col min="16141" max="16141" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="41" t="s">
         <v>38</v>
       </c>
@@ -8164,7 +8121,7 @@
       <c r="L1" s="41"/>
       <c r="M1" s="42"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="43"/>
       <c r="B2" s="43"/>
       <c r="C2" s="43"/>
@@ -8179,7 +8136,7 @@
       <c r="L2" s="43"/>
       <c r="M2" s="44"/>
     </row>
-    <row r="3" spans="1:13" s="26" customFormat="1" ht="16.5">
+    <row r="3" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="24" t="s">
         <v>28</v>
       </c>
@@ -8220,7 +8177,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="26" customFormat="1" ht="68.25" customHeight="1">
+    <row r="4" spans="1:13" s="26" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="29">
         <v>1</v>
       </c>
@@ -8257,9 +8214,11 @@
       <c r="L4" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="M4" s="31"/>
-    </row>
-    <row r="5" spans="1:13" s="26" customFormat="1" ht="16.5">
+      <c r="M4" s="31" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="29"/>
       <c r="B5" s="29"/>
       <c r="C5" s="29"/>
@@ -8274,7 +8233,7 @@
       <c r="L5" s="29"/>
       <c r="M5" s="31"/>
     </row>
-    <row r="6" spans="1:13" s="26" customFormat="1" ht="16.5">
+    <row r="6" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="29"/>
       <c r="B6" s="29"/>
       <c r="C6" s="29"/>
@@ -8289,7 +8248,7 @@
       <c r="L6" s="29"/>
       <c r="M6" s="31"/>
     </row>
-    <row r="7" spans="1:13" s="26" customFormat="1" ht="16.5">
+    <row r="7" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="29"/>
       <c r="B7" s="29"/>
       <c r="C7" s="29"/>
@@ -8304,7 +8263,7 @@
       <c r="L7" s="29"/>
       <c r="M7" s="29"/>
     </row>
-    <row r="8" spans="1:13" s="26" customFormat="1" ht="16.5">
+    <row r="8" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="29"/>
       <c r="B8" s="29"/>
       <c r="C8" s="29"/>
@@ -8319,7 +8278,7 @@
       <c r="L8" s="29"/>
       <c r="M8" s="29"/>
     </row>
-    <row r="9" spans="1:13" s="26" customFormat="1" ht="16.5">
+    <row r="9" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="29"/>
       <c r="B9" s="29"/>
       <c r="C9" s="29"/>
@@ -8334,7 +8293,7 @@
       <c r="L9" s="29"/>
       <c r="M9" s="29"/>
     </row>
-    <row r="10" spans="1:13" s="26" customFormat="1" ht="16.5">
+    <row r="10" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="29"/>
       <c r="B10" s="29"/>
       <c r="C10" s="29"/>
@@ -8349,7 +8308,7 @@
       <c r="L10" s="29"/>
       <c r="M10" s="29"/>
     </row>
-    <row r="11" spans="1:13" s="26" customFormat="1" ht="16.5">
+    <row r="11" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="29"/>
       <c r="B11" s="29"/>
       <c r="C11" s="29"/>
@@ -8364,7 +8323,7 @@
       <c r="L11" s="29"/>
       <c r="M11" s="29"/>
     </row>
-    <row r="12" spans="1:13" s="26" customFormat="1" ht="16.5">
+    <row r="12" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="29"/>
       <c r="B12" s="29"/>
       <c r="C12" s="29"/>
@@ -8379,7 +8338,7 @@
       <c r="L12" s="29"/>
       <c r="M12" s="29"/>
     </row>
-    <row r="13" spans="1:13" s="26" customFormat="1" ht="16.5">
+    <row r="13" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="29"/>
       <c r="B13" s="29"/>
       <c r="C13" s="29"/>
